--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10101_顧客検索.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10101_顧客検索.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E9FEC5-6A5F-4743-96CD-9FEF1ECEDE4D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287D8F9E-6F56-43FD-B920-E93A8BBE80DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1026,9 +1026,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>/client</t>
-  </si>
-  <si>
     <t>検索条件は入力値が指定された場合のみ検索条件に含める。</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -1291,6 +1288,10 @@
     <rPh sb="108" eb="110">
       <t>メイキ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/client?clientName=顧客名&amp;industryCode=業種コード</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2100,6 +2101,96 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2214,80 +2305,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2325,44 +2380,32 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2382,241 +2425,85 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2667,31 +2554,145 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6411,7 +6412,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="37"/>
       <c r="J23" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
@@ -7065,55 +7066,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="180" t="s">
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="210" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="189" t="s">
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="198" t="s">
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="221"/>
+      <c r="S1" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
-      <c r="V1" s="199"/>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="199"/>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="186" t="s">
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="230"/>
+      <c r="AA1" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="169" t="s">
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="173">
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="203">
         <v>43718</v>
       </c>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="175"/>
+      <c r="AH1" s="204"/>
+      <c r="AI1" s="205"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -7121,53 +7122,53 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="180" t="s">
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="203"/>
-      <c r="AA2" s="186" t="s">
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="231"/>
+      <c r="T2" s="232"/>
+      <c r="U2" s="232"/>
+      <c r="V2" s="232"/>
+      <c r="W2" s="232"/>
+      <c r="X2" s="232"/>
+      <c r="Y2" s="232"/>
+      <c r="Z2" s="233"/>
+      <c r="AA2" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="183" t="str">
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="213" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="184"/>
-      <c r="AE2" s="184"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="173">
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="203">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="175"/>
+      <c r="AH2" s="204"/>
+      <c r="AI2" s="205"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -7175,45 +7176,45 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="180" t="s">
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="210" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="205"/>
-      <c r="U3" s="205"/>
-      <c r="V3" s="205"/>
-      <c r="W3" s="205"/>
-      <c r="X3" s="205"/>
-      <c r="Y3" s="205"/>
-      <c r="Z3" s="206"/>
-      <c r="AA3" s="186"/>
-      <c r="AB3" s="188"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="173"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="175"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="225"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="234"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="235"/>
+      <c r="V3" s="235"/>
+      <c r="W3" s="235"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="235"/>
+      <c r="Z3" s="236"/>
+      <c r="AA3" s="216"/>
+      <c r="AB3" s="218"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="203"/>
+      <c r="AH3" s="204"/>
+      <c r="AI3" s="205"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -7250,1204 +7251,1048 @@
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="177"/>
-      <c r="D7" s="176" t="s">
+      <c r="C7" s="207"/>
+      <c r="D7" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="178"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="176" t="s">
+      <c r="E7" s="208"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="178"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="179" t="s">
+      <c r="H7" s="208"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="209" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="178"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="176" t="s">
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="208"/>
+      <c r="P7" s="207"/>
+      <c r="Q7" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="178"/>
-      <c r="S7" s="178"/>
-      <c r="T7" s="178"/>
-      <c r="U7" s="178"/>
-      <c r="V7" s="178"/>
-      <c r="W7" s="178"/>
-      <c r="X7" s="178"/>
-      <c r="Y7" s="178"/>
-      <c r="Z7" s="178"/>
-      <c r="AA7" s="178"/>
-      <c r="AB7" s="178"/>
-      <c r="AC7" s="178"/>
-      <c r="AD7" s="178"/>
-      <c r="AE7" s="177"/>
-      <c r="AF7" s="179" t="s">
+      <c r="R7" s="208"/>
+      <c r="S7" s="208"/>
+      <c r="T7" s="208"/>
+      <c r="U7" s="208"/>
+      <c r="V7" s="208"/>
+      <c r="W7" s="208"/>
+      <c r="X7" s="208"/>
+      <c r="Y7" s="208"/>
+      <c r="Z7" s="208"/>
+      <c r="AA7" s="208"/>
+      <c r="AB7" s="208"/>
+      <c r="AC7" s="208"/>
+      <c r="AD7" s="208"/>
+      <c r="AE7" s="207"/>
+      <c r="AF7" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="178"/>
-      <c r="AH7" s="178"/>
-      <c r="AI7" s="177"/>
+      <c r="AG7" s="208"/>
+      <c r="AH7" s="208"/>
+      <c r="AI7" s="207"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="117">
         <v>1</v>
       </c>
-      <c r="B8" s="219" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="220"/>
-      <c r="D8" s="221">
+      <c r="B8" s="186" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="187"/>
+      <c r="D8" s="188">
         <v>43718</v>
       </c>
-      <c r="E8" s="222"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="224" t="s">
+      <c r="E8" s="189"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="191" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="192"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="193" t="s">
         <v>156</v>
       </c>
-      <c r="H8" s="225"/>
-      <c r="I8" s="220"/>
-      <c r="J8" s="228" t="s">
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="194"/>
+      <c r="P8" s="195"/>
+      <c r="Q8" s="196" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="226"/>
-      <c r="L8" s="226"/>
-      <c r="M8" s="226"/>
-      <c r="N8" s="226"/>
-      <c r="O8" s="226"/>
-      <c r="P8" s="227"/>
-      <c r="Q8" s="369" t="s">
-        <v>158</v>
-      </c>
-      <c r="R8" s="229"/>
-      <c r="S8" s="229"/>
-      <c r="T8" s="229"/>
-      <c r="U8" s="229"/>
-      <c r="V8" s="229"/>
-      <c r="W8" s="229"/>
-      <c r="X8" s="229"/>
-      <c r="Y8" s="229"/>
-      <c r="Z8" s="229"/>
-      <c r="AA8" s="229"/>
-      <c r="AB8" s="229"/>
-      <c r="AC8" s="229"/>
-      <c r="AD8" s="229"/>
-      <c r="AE8" s="230"/>
-      <c r="AF8" s="228" t="s">
+      <c r="R8" s="197"/>
+      <c r="S8" s="197"/>
+      <c r="T8" s="197"/>
+      <c r="U8" s="197"/>
+      <c r="V8" s="197"/>
+      <c r="W8" s="197"/>
+      <c r="X8" s="197"/>
+      <c r="Y8" s="197"/>
+      <c r="Z8" s="197"/>
+      <c r="AA8" s="197"/>
+      <c r="AB8" s="197"/>
+      <c r="AC8" s="197"/>
+      <c r="AD8" s="197"/>
+      <c r="AE8" s="198"/>
+      <c r="AF8" s="193" t="s">
         <v>72</v>
       </c>
-      <c r="AG8" s="226"/>
-      <c r="AH8" s="226"/>
-      <c r="AI8" s="227"/>
+      <c r="AG8" s="194"/>
+      <c r="AH8" s="194"/>
+      <c r="AI8" s="195"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="118">
         <v>2</v>
       </c>
-      <c r="B9" s="367" t="s">
+      <c r="B9" s="182" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="170"/>
+      <c r="D9" s="171">
+        <v>44825</v>
+      </c>
+      <c r="E9" s="172"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="183" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="208"/>
-      <c r="D9" s="209">
-        <v>44825</v>
-      </c>
-      <c r="E9" s="210"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="368" t="s">
-        <v>155</v>
-      </c>
-      <c r="H9" s="212"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="283" t="s">
+      <c r="H9" s="174"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="184" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9" s="176"/>
+      <c r="L9" s="176"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="176"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="R9" s="179"/>
+      <c r="S9" s="179"/>
+      <c r="T9" s="179"/>
+      <c r="U9" s="179"/>
+      <c r="V9" s="179"/>
+      <c r="W9" s="179"/>
+      <c r="X9" s="179"/>
+      <c r="Y9" s="179"/>
+      <c r="Z9" s="179"/>
+      <c r="AA9" s="179"/>
+      <c r="AB9" s="179"/>
+      <c r="AC9" s="179"/>
+      <c r="AD9" s="179"/>
+      <c r="AE9" s="180"/>
+      <c r="AF9" s="185" t="s">
         <v>159</v>
       </c>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="214"/>
-      <c r="O9" s="214"/>
-      <c r="P9" s="215"/>
-      <c r="Q9" s="283" t="s">
-        <v>162</v>
-      </c>
-      <c r="R9" s="217"/>
-      <c r="S9" s="217"/>
-      <c r="T9" s="217"/>
-      <c r="U9" s="217"/>
-      <c r="V9" s="217"/>
-      <c r="W9" s="217"/>
-      <c r="X9" s="217"/>
-      <c r="Y9" s="217"/>
-      <c r="Z9" s="217"/>
-      <c r="AA9" s="217"/>
-      <c r="AB9" s="217"/>
-      <c r="AC9" s="217"/>
-      <c r="AD9" s="217"/>
-      <c r="AE9" s="218"/>
-      <c r="AF9" s="370" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG9" s="214"/>
-      <c r="AH9" s="214"/>
-      <c r="AI9" s="215"/>
+      <c r="AG9" s="176"/>
+      <c r="AH9" s="176"/>
+      <c r="AI9" s="177"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="118"/>
-      <c r="B10" s="207"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="207"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="214"/>
-      <c r="L10" s="214"/>
-      <c r="M10" s="214"/>
-      <c r="N10" s="214"/>
-      <c r="O10" s="214"/>
-      <c r="P10" s="215"/>
-      <c r="Q10" s="216"/>
-      <c r="R10" s="217"/>
-      <c r="S10" s="217"/>
-      <c r="T10" s="217"/>
-      <c r="U10" s="217"/>
-      <c r="V10" s="217"/>
-      <c r="W10" s="217"/>
-      <c r="X10" s="217"/>
-      <c r="Y10" s="217"/>
-      <c r="Z10" s="217"/>
-      <c r="AA10" s="217"/>
-      <c r="AB10" s="217"/>
-      <c r="AC10" s="217"/>
-      <c r="AD10" s="217"/>
-      <c r="AE10" s="218"/>
-      <c r="AF10" s="213"/>
-      <c r="AG10" s="214"/>
-      <c r="AH10" s="214"/>
-      <c r="AI10" s="215"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="176"/>
+      <c r="N10" s="176"/>
+      <c r="O10" s="176"/>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="178"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="179"/>
+      <c r="T10" s="179"/>
+      <c r="U10" s="179"/>
+      <c r="V10" s="179"/>
+      <c r="W10" s="179"/>
+      <c r="X10" s="179"/>
+      <c r="Y10" s="179"/>
+      <c r="Z10" s="179"/>
+      <c r="AA10" s="179"/>
+      <c r="AB10" s="179"/>
+      <c r="AC10" s="179"/>
+      <c r="AD10" s="179"/>
+      <c r="AE10" s="180"/>
+      <c r="AF10" s="175"/>
+      <c r="AG10" s="176"/>
+      <c r="AH10" s="176"/>
+      <c r="AI10" s="177"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="118"/>
-      <c r="B11" s="207"/>
-      <c r="C11" s="208"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="207"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="208"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="214"/>
-      <c r="L11" s="214"/>
-      <c r="M11" s="214"/>
-      <c r="N11" s="214"/>
-      <c r="O11" s="214"/>
-      <c r="P11" s="215"/>
-      <c r="Q11" s="216"/>
-      <c r="R11" s="217"/>
-      <c r="S11" s="217"/>
-      <c r="T11" s="217"/>
-      <c r="U11" s="217"/>
-      <c r="V11" s="217"/>
-      <c r="W11" s="217"/>
-      <c r="X11" s="217"/>
-      <c r="Y11" s="217"/>
-      <c r="Z11" s="217"/>
-      <c r="AA11" s="217"/>
-      <c r="AB11" s="217"/>
-      <c r="AC11" s="217"/>
-      <c r="AD11" s="217"/>
-      <c r="AE11" s="218"/>
-      <c r="AF11" s="213"/>
-      <c r="AG11" s="214"/>
-      <c r="AH11" s="214"/>
-      <c r="AI11" s="215"/>
+      <c r="B11" s="169"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="176"/>
+      <c r="L11" s="176"/>
+      <c r="M11" s="176"/>
+      <c r="N11" s="176"/>
+      <c r="O11" s="176"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="178"/>
+      <c r="R11" s="179"/>
+      <c r="S11" s="179"/>
+      <c r="T11" s="179"/>
+      <c r="U11" s="179"/>
+      <c r="V11" s="179"/>
+      <c r="W11" s="179"/>
+      <c r="X11" s="179"/>
+      <c r="Y11" s="179"/>
+      <c r="Z11" s="179"/>
+      <c r="AA11" s="179"/>
+      <c r="AB11" s="179"/>
+      <c r="AC11" s="179"/>
+      <c r="AD11" s="179"/>
+      <c r="AE11" s="180"/>
+      <c r="AF11" s="175"/>
+      <c r="AG11" s="176"/>
+      <c r="AH11" s="176"/>
+      <c r="AI11" s="177"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="118"/>
-      <c r="B12" s="207"/>
-      <c r="C12" s="208"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="207"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="213"/>
-      <c r="K12" s="214"/>
-      <c r="L12" s="214"/>
-      <c r="M12" s="214"/>
-      <c r="N12" s="214"/>
-      <c r="O12" s="214"/>
-      <c r="P12" s="215"/>
-      <c r="Q12" s="216"/>
-      <c r="R12" s="217"/>
-      <c r="S12" s="217"/>
-      <c r="T12" s="217"/>
-      <c r="U12" s="217"/>
-      <c r="V12" s="217"/>
-      <c r="W12" s="217"/>
-      <c r="X12" s="217"/>
-      <c r="Y12" s="217"/>
-      <c r="Z12" s="217"/>
-      <c r="AA12" s="217"/>
-      <c r="AB12" s="217"/>
-      <c r="AC12" s="217"/>
-      <c r="AD12" s="217"/>
-      <c r="AE12" s="218"/>
-      <c r="AF12" s="213"/>
-      <c r="AG12" s="214"/>
-      <c r="AH12" s="214"/>
-      <c r="AI12" s="215"/>
+      <c r="B12" s="169"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="176"/>
+      <c r="M12" s="176"/>
+      <c r="N12" s="176"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="178"/>
+      <c r="R12" s="179"/>
+      <c r="S12" s="179"/>
+      <c r="T12" s="179"/>
+      <c r="U12" s="179"/>
+      <c r="V12" s="179"/>
+      <c r="W12" s="179"/>
+      <c r="X12" s="179"/>
+      <c r="Y12" s="179"/>
+      <c r="Z12" s="179"/>
+      <c r="AA12" s="179"/>
+      <c r="AB12" s="179"/>
+      <c r="AC12" s="179"/>
+      <c r="AD12" s="179"/>
+      <c r="AE12" s="180"/>
+      <c r="AF12" s="175"/>
+      <c r="AG12" s="176"/>
+      <c r="AH12" s="176"/>
+      <c r="AI12" s="177"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="118"/>
-      <c r="B13" s="207"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="213"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="214"/>
-      <c r="O13" s="214"/>
-      <c r="P13" s="215"/>
-      <c r="Q13" s="216"/>
-      <c r="R13" s="217"/>
-      <c r="S13" s="217"/>
-      <c r="T13" s="217"/>
-      <c r="U13" s="217"/>
-      <c r="V13" s="217"/>
-      <c r="W13" s="217"/>
-      <c r="X13" s="217"/>
-      <c r="Y13" s="217"/>
-      <c r="Z13" s="217"/>
-      <c r="AA13" s="217"/>
-      <c r="AB13" s="217"/>
-      <c r="AC13" s="217"/>
-      <c r="AD13" s="217"/>
-      <c r="AE13" s="218"/>
-      <c r="AF13" s="213"/>
-      <c r="AG13" s="214"/>
-      <c r="AH13" s="214"/>
-      <c r="AI13" s="215"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="176"/>
+      <c r="L13" s="176"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="176"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="178"/>
+      <c r="R13" s="179"/>
+      <c r="S13" s="179"/>
+      <c r="T13" s="179"/>
+      <c r="U13" s="179"/>
+      <c r="V13" s="179"/>
+      <c r="W13" s="179"/>
+      <c r="X13" s="179"/>
+      <c r="Y13" s="179"/>
+      <c r="Z13" s="179"/>
+      <c r="AA13" s="179"/>
+      <c r="AB13" s="179"/>
+      <c r="AC13" s="179"/>
+      <c r="AD13" s="179"/>
+      <c r="AE13" s="180"/>
+      <c r="AF13" s="175"/>
+      <c r="AG13" s="176"/>
+      <c r="AH13" s="176"/>
+      <c r="AI13" s="177"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="118"/>
-      <c r="B14" s="207"/>
-      <c r="C14" s="208"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="210"/>
-      <c r="F14" s="211"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="213"/>
-      <c r="K14" s="214"/>
-      <c r="L14" s="214"/>
-      <c r="M14" s="214"/>
-      <c r="N14" s="214"/>
-      <c r="O14" s="214"/>
-      <c r="P14" s="215"/>
-      <c r="Q14" s="216"/>
-      <c r="R14" s="217"/>
-      <c r="S14" s="217"/>
-      <c r="T14" s="217"/>
-      <c r="U14" s="217"/>
-      <c r="V14" s="217"/>
-      <c r="W14" s="217"/>
-      <c r="X14" s="217"/>
-      <c r="Y14" s="217"/>
-      <c r="Z14" s="217"/>
-      <c r="AA14" s="217"/>
-      <c r="AB14" s="217"/>
-      <c r="AC14" s="217"/>
-      <c r="AD14" s="217"/>
-      <c r="AE14" s="218"/>
-      <c r="AF14" s="213"/>
-      <c r="AG14" s="214"/>
-      <c r="AH14" s="214"/>
-      <c r="AI14" s="215"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="176"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="176"/>
+      <c r="O14" s="176"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="178"/>
+      <c r="R14" s="179"/>
+      <c r="S14" s="179"/>
+      <c r="T14" s="179"/>
+      <c r="U14" s="179"/>
+      <c r="V14" s="179"/>
+      <c r="W14" s="179"/>
+      <c r="X14" s="179"/>
+      <c r="Y14" s="179"/>
+      <c r="Z14" s="179"/>
+      <c r="AA14" s="179"/>
+      <c r="AB14" s="179"/>
+      <c r="AC14" s="179"/>
+      <c r="AD14" s="179"/>
+      <c r="AE14" s="180"/>
+      <c r="AF14" s="175"/>
+      <c r="AG14" s="176"/>
+      <c r="AH14" s="176"/>
+      <c r="AI14" s="177"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="118"/>
-      <c r="B15" s="207"/>
-      <c r="C15" s="208"/>
-      <c r="D15" s="209"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="211"/>
-      <c r="G15" s="207"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="214"/>
-      <c r="L15" s="214"/>
-      <c r="M15" s="214"/>
-      <c r="N15" s="214"/>
-      <c r="O15" s="214"/>
-      <c r="P15" s="215"/>
-      <c r="Q15" s="216"/>
-      <c r="R15" s="217"/>
-      <c r="S15" s="217"/>
-      <c r="T15" s="217"/>
-      <c r="U15" s="217"/>
-      <c r="V15" s="217"/>
-      <c r="W15" s="217"/>
-      <c r="X15" s="217"/>
-      <c r="Y15" s="217"/>
-      <c r="Z15" s="217"/>
-      <c r="AA15" s="217"/>
-      <c r="AB15" s="217"/>
-      <c r="AC15" s="217"/>
-      <c r="AD15" s="217"/>
-      <c r="AE15" s="218"/>
-      <c r="AF15" s="213"/>
-      <c r="AG15" s="214"/>
-      <c r="AH15" s="214"/>
-      <c r="AI15" s="215"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="176"/>
+      <c r="M15" s="176"/>
+      <c r="N15" s="176"/>
+      <c r="O15" s="176"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="178"/>
+      <c r="R15" s="179"/>
+      <c r="S15" s="179"/>
+      <c r="T15" s="179"/>
+      <c r="U15" s="179"/>
+      <c r="V15" s="179"/>
+      <c r="W15" s="179"/>
+      <c r="X15" s="179"/>
+      <c r="Y15" s="179"/>
+      <c r="Z15" s="179"/>
+      <c r="AA15" s="179"/>
+      <c r="AB15" s="179"/>
+      <c r="AC15" s="179"/>
+      <c r="AD15" s="179"/>
+      <c r="AE15" s="180"/>
+      <c r="AF15" s="175"/>
+      <c r="AG15" s="176"/>
+      <c r="AH15" s="176"/>
+      <c r="AI15" s="177"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="118"/>
-      <c r="B16" s="207"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="209"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="213"/>
-      <c r="K16" s="214"/>
-      <c r="L16" s="214"/>
-      <c r="M16" s="214"/>
-      <c r="N16" s="214"/>
-      <c r="O16" s="214"/>
-      <c r="P16" s="215"/>
-      <c r="Q16" s="216"/>
-      <c r="R16" s="217"/>
-      <c r="S16" s="217"/>
-      <c r="T16" s="217"/>
-      <c r="U16" s="217"/>
-      <c r="V16" s="217"/>
-      <c r="W16" s="217"/>
-      <c r="X16" s="217"/>
-      <c r="Y16" s="217"/>
-      <c r="Z16" s="217"/>
-      <c r="AA16" s="217"/>
-      <c r="AB16" s="217"/>
-      <c r="AC16" s="217"/>
-      <c r="AD16" s="217"/>
-      <c r="AE16" s="218"/>
-      <c r="AF16" s="213"/>
-      <c r="AG16" s="214"/>
-      <c r="AH16" s="214"/>
-      <c r="AI16" s="215"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="176"/>
+      <c r="M16" s="176"/>
+      <c r="N16" s="176"/>
+      <c r="O16" s="176"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="178"/>
+      <c r="R16" s="179"/>
+      <c r="S16" s="179"/>
+      <c r="T16" s="179"/>
+      <c r="U16" s="179"/>
+      <c r="V16" s="179"/>
+      <c r="W16" s="179"/>
+      <c r="X16" s="179"/>
+      <c r="Y16" s="179"/>
+      <c r="Z16" s="179"/>
+      <c r="AA16" s="179"/>
+      <c r="AB16" s="179"/>
+      <c r="AC16" s="179"/>
+      <c r="AD16" s="179"/>
+      <c r="AE16" s="180"/>
+      <c r="AF16" s="175"/>
+      <c r="AG16" s="176"/>
+      <c r="AH16" s="176"/>
+      <c r="AI16" s="177"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="118"/>
-      <c r="B17" s="207"/>
-      <c r="C17" s="208"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="214"/>
-      <c r="L17" s="214"/>
-      <c r="M17" s="214"/>
-      <c r="N17" s="214"/>
-      <c r="O17" s="214"/>
-      <c r="P17" s="215"/>
-      <c r="Q17" s="216"/>
-      <c r="R17" s="217"/>
-      <c r="S17" s="217"/>
-      <c r="T17" s="217"/>
-      <c r="U17" s="217"/>
-      <c r="V17" s="217"/>
-      <c r="W17" s="217"/>
-      <c r="X17" s="217"/>
-      <c r="Y17" s="217"/>
-      <c r="Z17" s="217"/>
-      <c r="AA17" s="217"/>
-      <c r="AB17" s="217"/>
-      <c r="AC17" s="217"/>
-      <c r="AD17" s="217"/>
-      <c r="AE17" s="218"/>
-      <c r="AF17" s="213"/>
-      <c r="AG17" s="214"/>
-      <c r="AH17" s="214"/>
-      <c r="AI17" s="215"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="176"/>
+      <c r="M17" s="176"/>
+      <c r="N17" s="176"/>
+      <c r="O17" s="176"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="178"/>
+      <c r="R17" s="179"/>
+      <c r="S17" s="179"/>
+      <c r="T17" s="179"/>
+      <c r="U17" s="179"/>
+      <c r="V17" s="179"/>
+      <c r="W17" s="179"/>
+      <c r="X17" s="179"/>
+      <c r="Y17" s="179"/>
+      <c r="Z17" s="179"/>
+      <c r="AA17" s="179"/>
+      <c r="AB17" s="179"/>
+      <c r="AC17" s="179"/>
+      <c r="AD17" s="179"/>
+      <c r="AE17" s="180"/>
+      <c r="AF17" s="175"/>
+      <c r="AG17" s="176"/>
+      <c r="AH17" s="176"/>
+      <c r="AI17" s="177"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="118"/>
-      <c r="B18" s="207"/>
-      <c r="C18" s="208"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="210"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="213"/>
-      <c r="K18" s="214"/>
-      <c r="L18" s="214"/>
-      <c r="M18" s="214"/>
-      <c r="N18" s="214"/>
-      <c r="O18" s="214"/>
-      <c r="P18" s="215"/>
-      <c r="Q18" s="216"/>
-      <c r="R18" s="217"/>
-      <c r="S18" s="217"/>
-      <c r="T18" s="217"/>
-      <c r="U18" s="217"/>
-      <c r="V18" s="217"/>
-      <c r="W18" s="217"/>
-      <c r="X18" s="217"/>
-      <c r="Y18" s="217"/>
-      <c r="Z18" s="217"/>
-      <c r="AA18" s="217"/>
-      <c r="AB18" s="217"/>
-      <c r="AC18" s="217"/>
-      <c r="AD18" s="217"/>
-      <c r="AE18" s="218"/>
-      <c r="AF18" s="213"/>
-      <c r="AG18" s="214"/>
-      <c r="AH18" s="214"/>
-      <c r="AI18" s="215"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="176"/>
+      <c r="L18" s="176"/>
+      <c r="M18" s="176"/>
+      <c r="N18" s="176"/>
+      <c r="O18" s="176"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="178"/>
+      <c r="R18" s="179"/>
+      <c r="S18" s="179"/>
+      <c r="T18" s="179"/>
+      <c r="U18" s="179"/>
+      <c r="V18" s="179"/>
+      <c r="W18" s="179"/>
+      <c r="X18" s="179"/>
+      <c r="Y18" s="179"/>
+      <c r="Z18" s="179"/>
+      <c r="AA18" s="179"/>
+      <c r="AB18" s="179"/>
+      <c r="AC18" s="179"/>
+      <c r="AD18" s="179"/>
+      <c r="AE18" s="180"/>
+      <c r="AF18" s="175"/>
+      <c r="AG18" s="176"/>
+      <c r="AH18" s="176"/>
+      <c r="AI18" s="177"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="118"/>
-      <c r="B19" s="207"/>
-      <c r="C19" s="208"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="208"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="214"/>
-      <c r="L19" s="214"/>
-      <c r="M19" s="214"/>
-      <c r="N19" s="214"/>
-      <c r="O19" s="214"/>
-      <c r="P19" s="215"/>
-      <c r="Q19" s="216"/>
-      <c r="R19" s="217"/>
-      <c r="S19" s="217"/>
-      <c r="T19" s="217"/>
-      <c r="U19" s="217"/>
-      <c r="V19" s="217"/>
-      <c r="W19" s="217"/>
-      <c r="X19" s="217"/>
-      <c r="Y19" s="217"/>
-      <c r="Z19" s="217"/>
-      <c r="AA19" s="217"/>
-      <c r="AB19" s="217"/>
-      <c r="AC19" s="217"/>
-      <c r="AD19" s="217"/>
-      <c r="AE19" s="218"/>
-      <c r="AF19" s="213"/>
-      <c r="AG19" s="214"/>
-      <c r="AH19" s="214"/>
-      <c r="AI19" s="215"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="169"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="176"/>
+      <c r="L19" s="176"/>
+      <c r="M19" s="176"/>
+      <c r="N19" s="176"/>
+      <c r="O19" s="176"/>
+      <c r="P19" s="177"/>
+      <c r="Q19" s="178"/>
+      <c r="R19" s="179"/>
+      <c r="S19" s="179"/>
+      <c r="T19" s="179"/>
+      <c r="U19" s="179"/>
+      <c r="V19" s="179"/>
+      <c r="W19" s="179"/>
+      <c r="X19" s="179"/>
+      <c r="Y19" s="179"/>
+      <c r="Z19" s="179"/>
+      <c r="AA19" s="179"/>
+      <c r="AB19" s="179"/>
+      <c r="AC19" s="179"/>
+      <c r="AD19" s="179"/>
+      <c r="AE19" s="180"/>
+      <c r="AF19" s="175"/>
+      <c r="AG19" s="176"/>
+      <c r="AH19" s="176"/>
+      <c r="AI19" s="177"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="118"/>
-      <c r="B20" s="207"/>
-      <c r="C20" s="208"/>
-      <c r="D20" s="209"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="208"/>
-      <c r="J20" s="213"/>
-      <c r="K20" s="214"/>
-      <c r="L20" s="214"/>
-      <c r="M20" s="214"/>
-      <c r="N20" s="214"/>
-      <c r="O20" s="214"/>
-      <c r="P20" s="215"/>
-      <c r="Q20" s="216"/>
-      <c r="R20" s="217"/>
-      <c r="S20" s="217"/>
-      <c r="T20" s="217"/>
-      <c r="U20" s="217"/>
-      <c r="V20" s="217"/>
-      <c r="W20" s="217"/>
-      <c r="X20" s="217"/>
-      <c r="Y20" s="217"/>
-      <c r="Z20" s="217"/>
-      <c r="AA20" s="217"/>
-      <c r="AB20" s="217"/>
-      <c r="AC20" s="217"/>
-      <c r="AD20" s="217"/>
-      <c r="AE20" s="218"/>
-      <c r="AF20" s="213"/>
-      <c r="AG20" s="214"/>
-      <c r="AH20" s="214"/>
-      <c r="AI20" s="215"/>
+      <c r="B20" s="169"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="176"/>
+      <c r="L20" s="176"/>
+      <c r="M20" s="176"/>
+      <c r="N20" s="176"/>
+      <c r="O20" s="176"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="178"/>
+      <c r="R20" s="179"/>
+      <c r="S20" s="179"/>
+      <c r="T20" s="179"/>
+      <c r="U20" s="179"/>
+      <c r="V20" s="179"/>
+      <c r="W20" s="179"/>
+      <c r="X20" s="179"/>
+      <c r="Y20" s="179"/>
+      <c r="Z20" s="179"/>
+      <c r="AA20" s="179"/>
+      <c r="AB20" s="179"/>
+      <c r="AC20" s="179"/>
+      <c r="AD20" s="179"/>
+      <c r="AE20" s="180"/>
+      <c r="AF20" s="175"/>
+      <c r="AG20" s="176"/>
+      <c r="AH20" s="176"/>
+      <c r="AI20" s="177"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="118"/>
-      <c r="B21" s="207"/>
-      <c r="C21" s="208"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="207"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="208"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="214"/>
-      <c r="L21" s="214"/>
-      <c r="M21" s="214"/>
-      <c r="N21" s="214"/>
-      <c r="O21" s="214"/>
-      <c r="P21" s="215"/>
-      <c r="Q21" s="216"/>
-      <c r="R21" s="217"/>
-      <c r="S21" s="217"/>
-      <c r="T21" s="217"/>
-      <c r="U21" s="217"/>
-      <c r="V21" s="217"/>
-      <c r="W21" s="217"/>
-      <c r="X21" s="217"/>
-      <c r="Y21" s="217"/>
-      <c r="Z21" s="217"/>
-      <c r="AA21" s="217"/>
-      <c r="AB21" s="217"/>
-      <c r="AC21" s="217"/>
-      <c r="AD21" s="217"/>
-      <c r="AE21" s="218"/>
-      <c r="AF21" s="213"/>
-      <c r="AG21" s="214"/>
-      <c r="AH21" s="214"/>
-      <c r="AI21" s="215"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="176"/>
+      <c r="N21" s="176"/>
+      <c r="O21" s="176"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="178"/>
+      <c r="R21" s="179"/>
+      <c r="S21" s="179"/>
+      <c r="T21" s="179"/>
+      <c r="U21" s="179"/>
+      <c r="V21" s="179"/>
+      <c r="W21" s="179"/>
+      <c r="X21" s="179"/>
+      <c r="Y21" s="179"/>
+      <c r="Z21" s="179"/>
+      <c r="AA21" s="179"/>
+      <c r="AB21" s="179"/>
+      <c r="AC21" s="179"/>
+      <c r="AD21" s="179"/>
+      <c r="AE21" s="180"/>
+      <c r="AF21" s="175"/>
+      <c r="AG21" s="176"/>
+      <c r="AH21" s="176"/>
+      <c r="AI21" s="177"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="118"/>
-      <c r="B22" s="207"/>
-      <c r="C22" s="208"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="210"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="207"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="213"/>
-      <c r="K22" s="214"/>
-      <c r="L22" s="214"/>
-      <c r="M22" s="214"/>
-      <c r="N22" s="214"/>
-      <c r="O22" s="214"/>
-      <c r="P22" s="215"/>
-      <c r="Q22" s="216"/>
-      <c r="R22" s="217"/>
-      <c r="S22" s="217"/>
-      <c r="T22" s="217"/>
-      <c r="U22" s="217"/>
-      <c r="V22" s="217"/>
-      <c r="W22" s="217"/>
-      <c r="X22" s="217"/>
-      <c r="Y22" s="217"/>
-      <c r="Z22" s="217"/>
-      <c r="AA22" s="217"/>
-      <c r="AB22" s="217"/>
-      <c r="AC22" s="217"/>
-      <c r="AD22" s="217"/>
-      <c r="AE22" s="218"/>
-      <c r="AF22" s="213"/>
-      <c r="AG22" s="214"/>
-      <c r="AH22" s="214"/>
-      <c r="AI22" s="215"/>
+      <c r="B22" s="169"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="176"/>
+      <c r="M22" s="176"/>
+      <c r="N22" s="176"/>
+      <c r="O22" s="176"/>
+      <c r="P22" s="177"/>
+      <c r="Q22" s="178"/>
+      <c r="R22" s="179"/>
+      <c r="S22" s="179"/>
+      <c r="T22" s="179"/>
+      <c r="U22" s="179"/>
+      <c r="V22" s="179"/>
+      <c r="W22" s="179"/>
+      <c r="X22" s="179"/>
+      <c r="Y22" s="179"/>
+      <c r="Z22" s="179"/>
+      <c r="AA22" s="179"/>
+      <c r="AB22" s="179"/>
+      <c r="AC22" s="179"/>
+      <c r="AD22" s="179"/>
+      <c r="AE22" s="180"/>
+      <c r="AF22" s="175"/>
+      <c r="AG22" s="176"/>
+      <c r="AH22" s="176"/>
+      <c r="AI22" s="177"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="118"/>
-      <c r="B23" s="207"/>
-      <c r="C23" s="208"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="207"/>
-      <c r="H23" s="212"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="213"/>
-      <c r="K23" s="214"/>
-      <c r="L23" s="214"/>
-      <c r="M23" s="214"/>
-      <c r="N23" s="214"/>
-      <c r="O23" s="214"/>
-      <c r="P23" s="215"/>
-      <c r="Q23" s="216"/>
-      <c r="R23" s="217"/>
-      <c r="S23" s="217"/>
-      <c r="T23" s="217"/>
-      <c r="U23" s="217"/>
-      <c r="V23" s="217"/>
-      <c r="W23" s="217"/>
-      <c r="X23" s="217"/>
-      <c r="Y23" s="217"/>
-      <c r="Z23" s="217"/>
-      <c r="AA23" s="217"/>
-      <c r="AB23" s="217"/>
-      <c r="AC23" s="217"/>
-      <c r="AD23" s="217"/>
-      <c r="AE23" s="218"/>
-      <c r="AF23" s="213"/>
-      <c r="AG23" s="214"/>
-      <c r="AH23" s="214"/>
-      <c r="AI23" s="215"/>
+      <c r="B23" s="169"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="176"/>
+      <c r="M23" s="176"/>
+      <c r="N23" s="176"/>
+      <c r="O23" s="176"/>
+      <c r="P23" s="177"/>
+      <c r="Q23" s="178"/>
+      <c r="R23" s="179"/>
+      <c r="S23" s="179"/>
+      <c r="T23" s="179"/>
+      <c r="U23" s="179"/>
+      <c r="V23" s="179"/>
+      <c r="W23" s="179"/>
+      <c r="X23" s="179"/>
+      <c r="Y23" s="179"/>
+      <c r="Z23" s="179"/>
+      <c r="AA23" s="179"/>
+      <c r="AB23" s="179"/>
+      <c r="AC23" s="179"/>
+      <c r="AD23" s="179"/>
+      <c r="AE23" s="180"/>
+      <c r="AF23" s="175"/>
+      <c r="AG23" s="176"/>
+      <c r="AH23" s="176"/>
+      <c r="AI23" s="177"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="118"/>
-      <c r="B24" s="207"/>
-      <c r="C24" s="208"/>
-      <c r="D24" s="209"/>
-      <c r="E24" s="210"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="212"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="214"/>
-      <c r="L24" s="214"/>
-      <c r="M24" s="214"/>
-      <c r="N24" s="214"/>
-      <c r="O24" s="214"/>
-      <c r="P24" s="215"/>
-      <c r="Q24" s="216"/>
-      <c r="R24" s="217"/>
-      <c r="S24" s="217"/>
-      <c r="T24" s="217"/>
-      <c r="U24" s="217"/>
-      <c r="V24" s="217"/>
-      <c r="W24" s="217"/>
-      <c r="X24" s="217"/>
-      <c r="Y24" s="217"/>
-      <c r="Z24" s="217"/>
-      <c r="AA24" s="217"/>
-      <c r="AB24" s="217"/>
-      <c r="AC24" s="217"/>
-      <c r="AD24" s="217"/>
-      <c r="AE24" s="218"/>
-      <c r="AF24" s="213"/>
-      <c r="AG24" s="214"/>
-      <c r="AH24" s="214"/>
-      <c r="AI24" s="215"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="176"/>
+      <c r="L24" s="176"/>
+      <c r="M24" s="176"/>
+      <c r="N24" s="176"/>
+      <c r="O24" s="176"/>
+      <c r="P24" s="177"/>
+      <c r="Q24" s="178"/>
+      <c r="R24" s="179"/>
+      <c r="S24" s="179"/>
+      <c r="T24" s="179"/>
+      <c r="U24" s="179"/>
+      <c r="V24" s="179"/>
+      <c r="W24" s="179"/>
+      <c r="X24" s="179"/>
+      <c r="Y24" s="179"/>
+      <c r="Z24" s="179"/>
+      <c r="AA24" s="179"/>
+      <c r="AB24" s="179"/>
+      <c r="AC24" s="179"/>
+      <c r="AD24" s="179"/>
+      <c r="AE24" s="180"/>
+      <c r="AF24" s="175"/>
+      <c r="AG24" s="176"/>
+      <c r="AH24" s="176"/>
+      <c r="AI24" s="177"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="118"/>
-      <c r="B25" s="207"/>
-      <c r="C25" s="208"/>
-      <c r="D25" s="209"/>
-      <c r="E25" s="210"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="212"/>
-      <c r="I25" s="208"/>
-      <c r="J25" s="213"/>
-      <c r="K25" s="214"/>
-      <c r="L25" s="214"/>
-      <c r="M25" s="214"/>
-      <c r="N25" s="214"/>
-      <c r="O25" s="214"/>
-      <c r="P25" s="215"/>
-      <c r="Q25" s="216"/>
-      <c r="R25" s="217"/>
-      <c r="S25" s="217"/>
-      <c r="T25" s="217"/>
-      <c r="U25" s="217"/>
-      <c r="V25" s="217"/>
-      <c r="W25" s="217"/>
-      <c r="X25" s="217"/>
-      <c r="Y25" s="217"/>
-      <c r="Z25" s="217"/>
-      <c r="AA25" s="217"/>
-      <c r="AB25" s="217"/>
-      <c r="AC25" s="217"/>
-      <c r="AD25" s="217"/>
-      <c r="AE25" s="218"/>
-      <c r="AF25" s="213"/>
-      <c r="AG25" s="214"/>
-      <c r="AH25" s="214"/>
-      <c r="AI25" s="215"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="176"/>
+      <c r="L25" s="176"/>
+      <c r="M25" s="176"/>
+      <c r="N25" s="176"/>
+      <c r="O25" s="176"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="178"/>
+      <c r="R25" s="179"/>
+      <c r="S25" s="179"/>
+      <c r="T25" s="179"/>
+      <c r="U25" s="179"/>
+      <c r="V25" s="179"/>
+      <c r="W25" s="179"/>
+      <c r="X25" s="179"/>
+      <c r="Y25" s="179"/>
+      <c r="Z25" s="179"/>
+      <c r="AA25" s="179"/>
+      <c r="AB25" s="179"/>
+      <c r="AC25" s="179"/>
+      <c r="AD25" s="179"/>
+      <c r="AE25" s="180"/>
+      <c r="AF25" s="175"/>
+      <c r="AG25" s="176"/>
+      <c r="AH25" s="176"/>
+      <c r="AI25" s="177"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="118"/>
-      <c r="B26" s="207"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="209"/>
-      <c r="E26" s="210"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="207"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="208"/>
-      <c r="J26" s="213"/>
-      <c r="K26" s="214"/>
-      <c r="L26" s="214"/>
-      <c r="M26" s="214"/>
-      <c r="N26" s="214"/>
-      <c r="O26" s="214"/>
-      <c r="P26" s="215"/>
-      <c r="Q26" s="216"/>
-      <c r="R26" s="217"/>
-      <c r="S26" s="217"/>
-      <c r="T26" s="217"/>
-      <c r="U26" s="217"/>
-      <c r="V26" s="217"/>
-      <c r="W26" s="217"/>
-      <c r="X26" s="217"/>
-      <c r="Y26" s="217"/>
-      <c r="Z26" s="217"/>
-      <c r="AA26" s="217"/>
-      <c r="AB26" s="217"/>
-      <c r="AC26" s="217"/>
-      <c r="AD26" s="217"/>
-      <c r="AE26" s="218"/>
-      <c r="AF26" s="213"/>
-      <c r="AG26" s="214"/>
-      <c r="AH26" s="214"/>
-      <c r="AI26" s="215"/>
+      <c r="B26" s="169"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="176"/>
+      <c r="N26" s="176"/>
+      <c r="O26" s="176"/>
+      <c r="P26" s="177"/>
+      <c r="Q26" s="178"/>
+      <c r="R26" s="179"/>
+      <c r="S26" s="179"/>
+      <c r="T26" s="179"/>
+      <c r="U26" s="179"/>
+      <c r="V26" s="179"/>
+      <c r="W26" s="179"/>
+      <c r="X26" s="179"/>
+      <c r="Y26" s="179"/>
+      <c r="Z26" s="179"/>
+      <c r="AA26" s="179"/>
+      <c r="AB26" s="179"/>
+      <c r="AC26" s="179"/>
+      <c r="AD26" s="179"/>
+      <c r="AE26" s="180"/>
+      <c r="AF26" s="175"/>
+      <c r="AG26" s="176"/>
+      <c r="AH26" s="176"/>
+      <c r="AI26" s="177"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="118"/>
-      <c r="B27" s="207"/>
-      <c r="C27" s="208"/>
-      <c r="D27" s="209"/>
-      <c r="E27" s="210"/>
-      <c r="F27" s="211"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="212"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="214"/>
-      <c r="L27" s="214"/>
-      <c r="M27" s="214"/>
-      <c r="N27" s="214"/>
-      <c r="O27" s="214"/>
-      <c r="P27" s="215"/>
-      <c r="Q27" s="216"/>
-      <c r="R27" s="217"/>
-      <c r="S27" s="217"/>
-      <c r="T27" s="217"/>
-      <c r="U27" s="217"/>
-      <c r="V27" s="217"/>
-      <c r="W27" s="217"/>
-      <c r="X27" s="217"/>
-      <c r="Y27" s="217"/>
-      <c r="Z27" s="217"/>
-      <c r="AA27" s="217"/>
-      <c r="AB27" s="217"/>
-      <c r="AC27" s="217"/>
-      <c r="AD27" s="217"/>
-      <c r="AE27" s="218"/>
-      <c r="AF27" s="213"/>
-      <c r="AG27" s="214"/>
-      <c r="AH27" s="214"/>
-      <c r="AI27" s="215"/>
+      <c r="B27" s="169"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="176"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="176"/>
+      <c r="N27" s="176"/>
+      <c r="O27" s="176"/>
+      <c r="P27" s="177"/>
+      <c r="Q27" s="178"/>
+      <c r="R27" s="179"/>
+      <c r="S27" s="179"/>
+      <c r="T27" s="179"/>
+      <c r="U27" s="179"/>
+      <c r="V27" s="179"/>
+      <c r="W27" s="179"/>
+      <c r="X27" s="179"/>
+      <c r="Y27" s="179"/>
+      <c r="Z27" s="179"/>
+      <c r="AA27" s="179"/>
+      <c r="AB27" s="179"/>
+      <c r="AC27" s="179"/>
+      <c r="AD27" s="179"/>
+      <c r="AE27" s="180"/>
+      <c r="AF27" s="175"/>
+      <c r="AG27" s="176"/>
+      <c r="AH27" s="176"/>
+      <c r="AI27" s="177"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="118"/>
-      <c r="B28" s="207"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="210"/>
-      <c r="F28" s="211"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="212"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="213"/>
-      <c r="K28" s="214"/>
-      <c r="L28" s="214"/>
-      <c r="M28" s="214"/>
-      <c r="N28" s="214"/>
-      <c r="O28" s="214"/>
-      <c r="P28" s="215"/>
-      <c r="Q28" s="216"/>
-      <c r="R28" s="217"/>
-      <c r="S28" s="217"/>
-      <c r="T28" s="217"/>
-      <c r="U28" s="217"/>
-      <c r="V28" s="217"/>
-      <c r="W28" s="217"/>
-      <c r="X28" s="217"/>
-      <c r="Y28" s="217"/>
-      <c r="Z28" s="217"/>
-      <c r="AA28" s="217"/>
-      <c r="AB28" s="217"/>
-      <c r="AC28" s="217"/>
-      <c r="AD28" s="217"/>
-      <c r="AE28" s="218"/>
-      <c r="AF28" s="213"/>
-      <c r="AG28" s="214"/>
-      <c r="AH28" s="214"/>
-      <c r="AI28" s="215"/>
+      <c r="B28" s="169"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="176"/>
+      <c r="N28" s="176"/>
+      <c r="O28" s="176"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="178"/>
+      <c r="R28" s="179"/>
+      <c r="S28" s="179"/>
+      <c r="T28" s="179"/>
+      <c r="U28" s="179"/>
+      <c r="V28" s="179"/>
+      <c r="W28" s="179"/>
+      <c r="X28" s="179"/>
+      <c r="Y28" s="179"/>
+      <c r="Z28" s="179"/>
+      <c r="AA28" s="179"/>
+      <c r="AB28" s="179"/>
+      <c r="AC28" s="179"/>
+      <c r="AD28" s="179"/>
+      <c r="AE28" s="180"/>
+      <c r="AF28" s="175"/>
+      <c r="AG28" s="176"/>
+      <c r="AH28" s="176"/>
+      <c r="AI28" s="177"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="118"/>
-      <c r="B29" s="207"/>
-      <c r="C29" s="208"/>
-      <c r="D29" s="209"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="207"/>
-      <c r="H29" s="212"/>
-      <c r="I29" s="208"/>
-      <c r="J29" s="213"/>
-      <c r="K29" s="214"/>
-      <c r="L29" s="214"/>
-      <c r="M29" s="214"/>
-      <c r="N29" s="214"/>
-      <c r="O29" s="214"/>
-      <c r="P29" s="215"/>
-      <c r="Q29" s="216"/>
-      <c r="R29" s="217"/>
-      <c r="S29" s="217"/>
-      <c r="T29" s="217"/>
-      <c r="U29" s="217"/>
-      <c r="V29" s="217"/>
-      <c r="W29" s="217"/>
-      <c r="X29" s="217"/>
-      <c r="Y29" s="217"/>
-      <c r="Z29" s="217"/>
-      <c r="AA29" s="217"/>
-      <c r="AB29" s="217"/>
-      <c r="AC29" s="217"/>
-      <c r="AD29" s="217"/>
-      <c r="AE29" s="218"/>
-      <c r="AF29" s="213"/>
-      <c r="AG29" s="214"/>
-      <c r="AH29" s="214"/>
-      <c r="AI29" s="215"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="169"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="176"/>
+      <c r="N29" s="176"/>
+      <c r="O29" s="176"/>
+      <c r="P29" s="177"/>
+      <c r="Q29" s="178"/>
+      <c r="R29" s="179"/>
+      <c r="S29" s="179"/>
+      <c r="T29" s="179"/>
+      <c r="U29" s="179"/>
+      <c r="V29" s="179"/>
+      <c r="W29" s="179"/>
+      <c r="X29" s="179"/>
+      <c r="Y29" s="179"/>
+      <c r="Z29" s="179"/>
+      <c r="AA29" s="179"/>
+      <c r="AB29" s="179"/>
+      <c r="AC29" s="179"/>
+      <c r="AD29" s="179"/>
+      <c r="AE29" s="180"/>
+      <c r="AF29" s="175"/>
+      <c r="AG29" s="176"/>
+      <c r="AH29" s="176"/>
+      <c r="AI29" s="177"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="118"/>
-      <c r="B30" s="207"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="209"/>
-      <c r="E30" s="210"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="212"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="213"/>
-      <c r="K30" s="214"/>
-      <c r="L30" s="214"/>
-      <c r="M30" s="214"/>
-      <c r="N30" s="214"/>
-      <c r="O30" s="214"/>
-      <c r="P30" s="215"/>
-      <c r="Q30" s="216"/>
-      <c r="R30" s="217"/>
-      <c r="S30" s="217"/>
-      <c r="T30" s="217"/>
-      <c r="U30" s="217"/>
-      <c r="V30" s="217"/>
-      <c r="W30" s="217"/>
-      <c r="X30" s="217"/>
-      <c r="Y30" s="217"/>
-      <c r="Z30" s="217"/>
-      <c r="AA30" s="217"/>
-      <c r="AB30" s="217"/>
-      <c r="AC30" s="217"/>
-      <c r="AD30" s="217"/>
-      <c r="AE30" s="218"/>
-      <c r="AF30" s="213"/>
-      <c r="AG30" s="214"/>
-      <c r="AH30" s="214"/>
-      <c r="AI30" s="215"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="169"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="176"/>
+      <c r="L30" s="176"/>
+      <c r="M30" s="176"/>
+      <c r="N30" s="176"/>
+      <c r="O30" s="176"/>
+      <c r="P30" s="177"/>
+      <c r="Q30" s="178"/>
+      <c r="R30" s="179"/>
+      <c r="S30" s="179"/>
+      <c r="T30" s="179"/>
+      <c r="U30" s="179"/>
+      <c r="V30" s="179"/>
+      <c r="W30" s="179"/>
+      <c r="X30" s="179"/>
+      <c r="Y30" s="179"/>
+      <c r="Z30" s="179"/>
+      <c r="AA30" s="179"/>
+      <c r="AB30" s="179"/>
+      <c r="AC30" s="179"/>
+      <c r="AD30" s="179"/>
+      <c r="AE30" s="180"/>
+      <c r="AF30" s="175"/>
+      <c r="AG30" s="176"/>
+      <c r="AH30" s="176"/>
+      <c r="AI30" s="177"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="118"/>
-      <c r="B31" s="207"/>
-      <c r="C31" s="208"/>
-      <c r="D31" s="209"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="211"/>
-      <c r="G31" s="207"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="213"/>
-      <c r="K31" s="214"/>
-      <c r="L31" s="214"/>
-      <c r="M31" s="214"/>
-      <c r="N31" s="214"/>
-      <c r="O31" s="214"/>
-      <c r="P31" s="215"/>
-      <c r="Q31" s="216"/>
-      <c r="R31" s="217"/>
-      <c r="S31" s="217"/>
-      <c r="T31" s="217"/>
-      <c r="U31" s="217"/>
-      <c r="V31" s="217"/>
-      <c r="W31" s="217"/>
-      <c r="X31" s="217"/>
-      <c r="Y31" s="217"/>
-      <c r="Z31" s="217"/>
-      <c r="AA31" s="217"/>
-      <c r="AB31" s="217"/>
-      <c r="AC31" s="217"/>
-      <c r="AD31" s="217"/>
-      <c r="AE31" s="218"/>
-      <c r="AF31" s="213"/>
-      <c r="AG31" s="214"/>
-      <c r="AH31" s="214"/>
-      <c r="AI31" s="215"/>
+      <c r="B31" s="169"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="169"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="176"/>
+      <c r="N31" s="176"/>
+      <c r="O31" s="176"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="178"/>
+      <c r="R31" s="179"/>
+      <c r="S31" s="179"/>
+      <c r="T31" s="179"/>
+      <c r="U31" s="179"/>
+      <c r="V31" s="179"/>
+      <c r="W31" s="179"/>
+      <c r="X31" s="179"/>
+      <c r="Y31" s="179"/>
+      <c r="Z31" s="179"/>
+      <c r="AA31" s="179"/>
+      <c r="AB31" s="179"/>
+      <c r="AC31" s="179"/>
+      <c r="AD31" s="179"/>
+      <c r="AE31" s="180"/>
+      <c r="AF31" s="175"/>
+      <c r="AG31" s="176"/>
+      <c r="AH31" s="176"/>
+      <c r="AI31" s="177"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="118"/>
-      <c r="B32" s="207"/>
-      <c r="C32" s="208"/>
-      <c r="D32" s="209"/>
-      <c r="E32" s="210"/>
-      <c r="F32" s="211"/>
-      <c r="G32" s="207"/>
-      <c r="H32" s="212"/>
-      <c r="I32" s="208"/>
-      <c r="J32" s="213"/>
-      <c r="K32" s="231"/>
-      <c r="L32" s="214"/>
-      <c r="M32" s="214"/>
-      <c r="N32" s="214"/>
-      <c r="O32" s="214"/>
-      <c r="P32" s="215"/>
-      <c r="Q32" s="216"/>
-      <c r="R32" s="217"/>
-      <c r="S32" s="217"/>
-      <c r="T32" s="217"/>
-      <c r="U32" s="217"/>
-      <c r="V32" s="217"/>
-      <c r="W32" s="217"/>
-      <c r="X32" s="217"/>
-      <c r="Y32" s="217"/>
-      <c r="Z32" s="217"/>
-      <c r="AA32" s="217"/>
-      <c r="AB32" s="217"/>
-      <c r="AC32" s="217"/>
-      <c r="AD32" s="217"/>
-      <c r="AE32" s="218"/>
-      <c r="AF32" s="213"/>
-      <c r="AG32" s="214"/>
-      <c r="AH32" s="214"/>
-      <c r="AI32" s="215"/>
+      <c r="B32" s="169"/>
+      <c r="C32" s="170"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="181"/>
+      <c r="L32" s="176"/>
+      <c r="M32" s="176"/>
+      <c r="N32" s="176"/>
+      <c r="O32" s="176"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="178"/>
+      <c r="R32" s="179"/>
+      <c r="S32" s="179"/>
+      <c r="T32" s="179"/>
+      <c r="U32" s="179"/>
+      <c r="V32" s="179"/>
+      <c r="W32" s="179"/>
+      <c r="X32" s="179"/>
+      <c r="Y32" s="179"/>
+      <c r="Z32" s="179"/>
+      <c r="AA32" s="179"/>
+      <c r="AB32" s="179"/>
+      <c r="AC32" s="179"/>
+      <c r="AD32" s="179"/>
+      <c r="AE32" s="180"/>
+      <c r="AF32" s="175"/>
+      <c r="AG32" s="176"/>
+      <c r="AH32" s="176"/>
+      <c r="AI32" s="177"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="118"/>
-      <c r="B33" s="207"/>
-      <c r="C33" s="208"/>
-      <c r="D33" s="209"/>
-      <c r="E33" s="210"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="207"/>
-      <c r="H33" s="212"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="213"/>
-      <c r="K33" s="214"/>
-      <c r="L33" s="214"/>
-      <c r="M33" s="214"/>
-      <c r="N33" s="214"/>
-      <c r="O33" s="214"/>
-      <c r="P33" s="215"/>
-      <c r="Q33" s="216"/>
-      <c r="R33" s="217"/>
-      <c r="S33" s="217"/>
-      <c r="T33" s="217"/>
-      <c r="U33" s="217"/>
-      <c r="V33" s="217"/>
-      <c r="W33" s="217"/>
-      <c r="X33" s="217"/>
-      <c r="Y33" s="217"/>
-      <c r="Z33" s="217"/>
-      <c r="AA33" s="217"/>
-      <c r="AB33" s="217"/>
-      <c r="AC33" s="217"/>
-      <c r="AD33" s="217"/>
-      <c r="AE33" s="218"/>
-      <c r="AF33" s="213"/>
-      <c r="AG33" s="214"/>
-      <c r="AH33" s="214"/>
-      <c r="AI33" s="215"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="169"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="176"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="176"/>
+      <c r="N33" s="176"/>
+      <c r="O33" s="176"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="178"/>
+      <c r="R33" s="179"/>
+      <c r="S33" s="179"/>
+      <c r="T33" s="179"/>
+      <c r="U33" s="179"/>
+      <c r="V33" s="179"/>
+      <c r="W33" s="179"/>
+      <c r="X33" s="179"/>
+      <c r="Y33" s="179"/>
+      <c r="Z33" s="179"/>
+      <c r="AA33" s="179"/>
+      <c r="AB33" s="179"/>
+      <c r="AC33" s="179"/>
+      <c r="AD33" s="179"/>
+      <c r="AE33" s="180"/>
+      <c r="AF33" s="175"/>
+      <c r="AG33" s="176"/>
+      <c r="AH33" s="176"/>
+      <c r="AI33" s="177"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -8471,6 +8316,162 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -8627,157 +8628,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="250" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="244" t="str">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="235" t="s">
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="253" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="248" t="str">
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="255"/>
+      <c r="S1" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="249"/>
-      <c r="U1" s="249"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="249"/>
-      <c r="X1" s="249"/>
-      <c r="Y1" s="249"/>
-      <c r="Z1" s="250"/>
-      <c r="AA1" s="232" t="s">
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="234"/>
-      <c r="AC1" s="172" t="str">
+      <c r="AB1" s="252"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="245">
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="237">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="246"/>
-      <c r="AI1" s="247"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="239"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="244" t="str">
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="240"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="252"/>
-      <c r="U2" s="252"/>
-      <c r="V2" s="252"/>
-      <c r="W2" s="252"/>
-      <c r="X2" s="252"/>
-      <c r="Y2" s="252"/>
-      <c r="Z2" s="253"/>
-      <c r="AA2" s="232" t="s">
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="256"/>
+      <c r="P2" s="257"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="234"/>
-      <c r="AC2" s="172" t="str">
+      <c r="AB2" s="252"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="245">
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="237">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="246"/>
-      <c r="AI2" s="247"/>
+      <c r="AH2" s="238"/>
+      <c r="AI2" s="239"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="244" t="str">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="241"/>
-      <c r="P3" s="242"/>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="243"/>
-      <c r="S3" s="254"/>
-      <c r="T3" s="255"/>
-      <c r="U3" s="255"/>
-      <c r="V3" s="255"/>
-      <c r="W3" s="255"/>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="255"/>
-      <c r="Z3" s="256"/>
-      <c r="AA3" s="232"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="172" t="str">
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="260"/>
+      <c r="Q3" s="260"/>
+      <c r="R3" s="261"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="248"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="250"/>
+      <c r="AB3" s="252"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="245" t="str">
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="246"/>
-      <c r="AI3" s="247"/>
+      <c r="AH3" s="238"/>
+      <c r="AI3" s="239"/>
     </row>
     <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="44"/>
@@ -10244,6 +10245,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -10253,14 +10262,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -10278,7 +10279,7 @@
   <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:AH11"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -10289,157 +10290,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="244" t="str">
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="189" t="s">
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="219" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="248" t="str">
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="221"/>
+      <c r="S1" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="249"/>
-      <c r="U1" s="249"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="249"/>
-      <c r="X1" s="249"/>
-      <c r="Y1" s="249"/>
-      <c r="Z1" s="250"/>
-      <c r="AA1" s="186" t="s">
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="172" t="str">
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="258">
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="272">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="259"/>
-      <c r="AI1" s="260"/>
+      <c r="AH1" s="273"/>
+      <c r="AI1" s="274"/>
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="244" t="str">
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="252"/>
-      <c r="U2" s="252"/>
-      <c r="V2" s="252"/>
-      <c r="W2" s="252"/>
-      <c r="X2" s="252"/>
-      <c r="Y2" s="252"/>
-      <c r="Z2" s="253"/>
-      <c r="AA2" s="186" t="s">
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="172" t="str">
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="258">
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="272">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="259"/>
-      <c r="AI2" s="260"/>
+      <c r="AH2" s="273"/>
+      <c r="AI2" s="274"/>
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="244" t="str">
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="254"/>
-      <c r="T3" s="255"/>
-      <c r="U3" s="255"/>
-      <c r="V3" s="255"/>
-      <c r="W3" s="255"/>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="255"/>
-      <c r="Z3" s="256"/>
-      <c r="AA3" s="186"/>
-      <c r="AB3" s="188"/>
-      <c r="AC3" s="172" t="str">
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="225"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="248"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="216"/>
+      <c r="AB3" s="218"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="258" t="str">
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="259"/>
-      <c r="AI3" s="260"/>
+      <c r="AH3" s="273"/>
+      <c r="AI3" s="274"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30"/>
@@ -10595,92 +10596,92 @@
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="263" t="s">
+      <c r="D8" s="265" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="261" t="s">
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="267"/>
+      <c r="H8" s="275" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="262"/>
-      <c r="J8" s="262"/>
-      <c r="K8" s="262"/>
-      <c r="L8" s="262"/>
-      <c r="M8" s="262"/>
-      <c r="N8" s="262"/>
-      <c r="O8" s="262"/>
-      <c r="P8" s="262"/>
-      <c r="Q8" s="262"/>
-      <c r="R8" s="262"/>
-      <c r="S8" s="262"/>
-      <c r="T8" s="262"/>
-      <c r="U8" s="262"/>
-      <c r="V8" s="262"/>
-      <c r="W8" s="262"/>
-      <c r="X8" s="262"/>
-      <c r="Y8" s="262"/>
-      <c r="Z8" s="262"/>
-      <c r="AA8" s="262"/>
-      <c r="AB8" s="262"/>
-      <c r="AC8" s="262"/>
-      <c r="AD8" s="262"/>
-      <c r="AE8" s="262"/>
-      <c r="AF8" s="262"/>
-      <c r="AG8" s="262"/>
-      <c r="AH8" s="262"/>
+      <c r="I8" s="276"/>
+      <c r="J8" s="276"/>
+      <c r="K8" s="276"/>
+      <c r="L8" s="276"/>
+      <c r="M8" s="276"/>
+      <c r="N8" s="276"/>
+      <c r="O8" s="276"/>
+      <c r="P8" s="276"/>
+      <c r="Q8" s="276"/>
+      <c r="R8" s="276"/>
+      <c r="S8" s="276"/>
+      <c r="T8" s="276"/>
+      <c r="U8" s="276"/>
+      <c r="V8" s="276"/>
+      <c r="W8" s="276"/>
+      <c r="X8" s="276"/>
+      <c r="Y8" s="276"/>
+      <c r="Z8" s="276"/>
+      <c r="AA8" s="276"/>
+      <c r="AB8" s="276"/>
+      <c r="AC8" s="276"/>
+      <c r="AD8" s="276"/>
+      <c r="AE8" s="276"/>
+      <c r="AF8" s="276"/>
+      <c r="AG8" s="276"/>
+      <c r="AH8" s="276"/>
     </row>
     <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="263" t="s">
+      <c r="D9" s="265" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="264"/>
-      <c r="F9" s="264"/>
-      <c r="G9" s="265"/>
-      <c r="H9" s="257" t="s">
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="267"/>
+      <c r="H9" s="271" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="257"/>
-      <c r="J9" s="257"/>
-      <c r="K9" s="257"/>
-      <c r="L9" s="257"/>
-      <c r="M9" s="257"/>
-      <c r="N9" s="257"/>
-      <c r="O9" s="257"/>
-      <c r="P9" s="257"/>
-      <c r="Q9" s="257"/>
-      <c r="R9" s="257"/>
-      <c r="S9" s="257"/>
-      <c r="T9" s="257"/>
-      <c r="U9" s="257"/>
-      <c r="V9" s="257"/>
-      <c r="W9" s="257"/>
-      <c r="X9" s="257"/>
-      <c r="Y9" s="257"/>
-      <c r="Z9" s="257"/>
-      <c r="AA9" s="257"/>
-      <c r="AB9" s="257"/>
-      <c r="AC9" s="257"/>
-      <c r="AD9" s="257"/>
-      <c r="AE9" s="257"/>
-      <c r="AF9" s="257"/>
-      <c r="AG9" s="257"/>
-      <c r="AH9" s="257"/>
+      <c r="I9" s="271"/>
+      <c r="J9" s="271"/>
+      <c r="K9" s="271"/>
+      <c r="L9" s="271"/>
+      <c r="M9" s="271"/>
+      <c r="N9" s="271"/>
+      <c r="O9" s="271"/>
+      <c r="P9" s="271"/>
+      <c r="Q9" s="271"/>
+      <c r="R9" s="271"/>
+      <c r="S9" s="271"/>
+      <c r="T9" s="271"/>
+      <c r="U9" s="271"/>
+      <c r="V9" s="271"/>
+      <c r="W9" s="271"/>
+      <c r="X9" s="271"/>
+      <c r="Y9" s="271"/>
+      <c r="Z9" s="271"/>
+      <c r="AA9" s="271"/>
+      <c r="AB9" s="271"/>
+      <c r="AC9" s="271"/>
+      <c r="AD9" s="271"/>
+      <c r="AE9" s="271"/>
+      <c r="AF9" s="271"/>
+      <c r="AG9" s="271"/>
+      <c r="AH9" s="271"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="266" t="s">
+      <c r="D10" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="267"/>
-      <c r="F10" s="267"/>
-      <c r="G10" s="268"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="264"/>
       <c r="H10" s="103" t="s">
         <v>113</v>
       </c>
@@ -10715,172 +10716,172 @@
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="263" t="s">
+      <c r="D11" s="265" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="264"/>
-      <c r="F11" s="264"/>
-      <c r="G11" s="265"/>
-      <c r="H11" s="261" t="s">
+      <c r="E11" s="266"/>
+      <c r="F11" s="266"/>
+      <c r="G11" s="267"/>
+      <c r="H11" s="275" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="262"/>
-      <c r="J11" s="262"/>
-      <c r="K11" s="262"/>
-      <c r="L11" s="262"/>
-      <c r="M11" s="262"/>
-      <c r="N11" s="262"/>
-      <c r="O11" s="262"/>
-      <c r="P11" s="262"/>
-      <c r="Q11" s="262"/>
-      <c r="R11" s="262"/>
-      <c r="S11" s="262"/>
-      <c r="T11" s="262"/>
-      <c r="U11" s="262"/>
-      <c r="V11" s="262"/>
-      <c r="W11" s="262"/>
-      <c r="X11" s="262"/>
-      <c r="Y11" s="262"/>
-      <c r="Z11" s="262"/>
-      <c r="AA11" s="262"/>
-      <c r="AB11" s="262"/>
-      <c r="AC11" s="262"/>
-      <c r="AD11" s="262"/>
-      <c r="AE11" s="262"/>
-      <c r="AF11" s="262"/>
-      <c r="AG11" s="262"/>
-      <c r="AH11" s="262"/>
+      <c r="I11" s="276"/>
+      <c r="J11" s="276"/>
+      <c r="K11" s="276"/>
+      <c r="L11" s="276"/>
+      <c r="M11" s="276"/>
+      <c r="N11" s="276"/>
+      <c r="O11" s="276"/>
+      <c r="P11" s="276"/>
+      <c r="Q11" s="276"/>
+      <c r="R11" s="276"/>
+      <c r="S11" s="276"/>
+      <c r="T11" s="276"/>
+      <c r="U11" s="276"/>
+      <c r="V11" s="276"/>
+      <c r="W11" s="276"/>
+      <c r="X11" s="276"/>
+      <c r="Y11" s="276"/>
+      <c r="Z11" s="276"/>
+      <c r="AA11" s="276"/>
+      <c r="AB11" s="276"/>
+      <c r="AC11" s="276"/>
+      <c r="AD11" s="276"/>
+      <c r="AE11" s="276"/>
+      <c r="AF11" s="276"/>
+      <c r="AG11" s="276"/>
+      <c r="AH11" s="276"/>
     </row>
     <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="263" t="s">
+      <c r="D12" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="264"/>
-      <c r="F12" s="264"/>
-      <c r="G12" s="265"/>
-      <c r="H12" s="257" t="s">
+      <c r="E12" s="266"/>
+      <c r="F12" s="266"/>
+      <c r="G12" s="267"/>
+      <c r="H12" s="271" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="257"/>
-      <c r="J12" s="257"/>
-      <c r="K12" s="257"/>
-      <c r="L12" s="257"/>
-      <c r="M12" s="257"/>
-      <c r="N12" s="257"/>
-      <c r="O12" s="257"/>
-      <c r="P12" s="257"/>
-      <c r="Q12" s="257"/>
-      <c r="R12" s="257"/>
-      <c r="S12" s="257"/>
-      <c r="T12" s="257"/>
-      <c r="U12" s="257"/>
-      <c r="V12" s="257"/>
-      <c r="W12" s="257"/>
-      <c r="X12" s="257"/>
-      <c r="Y12" s="257"/>
-      <c r="Z12" s="257"/>
-      <c r="AA12" s="257"/>
-      <c r="AB12" s="257"/>
-      <c r="AC12" s="257"/>
-      <c r="AD12" s="257"/>
-      <c r="AE12" s="257"/>
-      <c r="AF12" s="257"/>
-      <c r="AG12" s="257"/>
-      <c r="AH12" s="257"/>
+      <c r="I12" s="271"/>
+      <c r="J12" s="271"/>
+      <c r="K12" s="271"/>
+      <c r="L12" s="271"/>
+      <c r="M12" s="271"/>
+      <c r="N12" s="271"/>
+      <c r="O12" s="271"/>
+      <c r="P12" s="271"/>
+      <c r="Q12" s="271"/>
+      <c r="R12" s="271"/>
+      <c r="S12" s="271"/>
+      <c r="T12" s="271"/>
+      <c r="U12" s="271"/>
+      <c r="V12" s="271"/>
+      <c r="W12" s="271"/>
+      <c r="X12" s="271"/>
+      <c r="Y12" s="271"/>
+      <c r="Z12" s="271"/>
+      <c r="AA12" s="271"/>
+      <c r="AB12" s="271"/>
+      <c r="AC12" s="271"/>
+      <c r="AD12" s="271"/>
+      <c r="AE12" s="271"/>
+      <c r="AF12" s="271"/>
+      <c r="AG12" s="271"/>
+      <c r="AH12" s="271"/>
     </row>
     <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="263" t="s">
+      <c r="D13" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="264"/>
-      <c r="F13" s="264"/>
-      <c r="G13" s="265"/>
-      <c r="H13" s="257" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" s="257"/>
-      <c r="J13" s="257"/>
-      <c r="K13" s="257"/>
-      <c r="L13" s="257"/>
-      <c r="M13" s="257"/>
-      <c r="N13" s="257"/>
-      <c r="O13" s="257"/>
-      <c r="P13" s="257"/>
-      <c r="Q13" s="257"/>
-      <c r="R13" s="257"/>
-      <c r="S13" s="257"/>
-      <c r="T13" s="257"/>
-      <c r="U13" s="257"/>
-      <c r="V13" s="257"/>
-      <c r="W13" s="257"/>
-      <c r="X13" s="257"/>
-      <c r="Y13" s="257"/>
-      <c r="Z13" s="257"/>
-      <c r="AA13" s="257"/>
-      <c r="AB13" s="257"/>
-      <c r="AC13" s="257"/>
-      <c r="AD13" s="257"/>
-      <c r="AE13" s="257"/>
-      <c r="AF13" s="257"/>
-      <c r="AG13" s="257"/>
-      <c r="AH13" s="257"/>
+      <c r="E13" s="266"/>
+      <c r="F13" s="266"/>
+      <c r="G13" s="267"/>
+      <c r="H13" s="271" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="271"/>
+      <c r="J13" s="271"/>
+      <c r="K13" s="271"/>
+      <c r="L13" s="271"/>
+      <c r="M13" s="271"/>
+      <c r="N13" s="271"/>
+      <c r="O13" s="271"/>
+      <c r="P13" s="271"/>
+      <c r="Q13" s="271"/>
+      <c r="R13" s="271"/>
+      <c r="S13" s="271"/>
+      <c r="T13" s="271"/>
+      <c r="U13" s="271"/>
+      <c r="V13" s="271"/>
+      <c r="W13" s="271"/>
+      <c r="X13" s="271"/>
+      <c r="Y13" s="271"/>
+      <c r="Z13" s="271"/>
+      <c r="AA13" s="271"/>
+      <c r="AB13" s="271"/>
+      <c r="AC13" s="271"/>
+      <c r="AD13" s="271"/>
+      <c r="AE13" s="271"/>
+      <c r="AF13" s="271"/>
+      <c r="AG13" s="271"/>
+      <c r="AH13" s="271"/>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="263" t="s">
+      <c r="D14" s="265" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="264"/>
-      <c r="F14" s="264"/>
-      <c r="G14" s="265"/>
-      <c r="H14" s="257" t="s">
+      <c r="E14" s="266"/>
+      <c r="F14" s="266"/>
+      <c r="G14" s="267"/>
+      <c r="H14" s="271" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="257"/>
-      <c r="J14" s="257"/>
-      <c r="K14" s="257"/>
-      <c r="L14" s="257"/>
-      <c r="M14" s="257"/>
-      <c r="N14" s="257"/>
-      <c r="O14" s="257"/>
-      <c r="P14" s="257"/>
-      <c r="Q14" s="257"/>
-      <c r="R14" s="257"/>
-      <c r="S14" s="257"/>
-      <c r="T14" s="257"/>
-      <c r="U14" s="257"/>
-      <c r="V14" s="257"/>
-      <c r="W14" s="257"/>
-      <c r="X14" s="257"/>
-      <c r="Y14" s="257"/>
-      <c r="Z14" s="257"/>
-      <c r="AA14" s="257"/>
-      <c r="AB14" s="257"/>
-      <c r="AC14" s="257"/>
-      <c r="AD14" s="257"/>
-      <c r="AE14" s="257"/>
-      <c r="AF14" s="257"/>
-      <c r="AG14" s="257"/>
-      <c r="AH14" s="257"/>
+      <c r="I14" s="271"/>
+      <c r="J14" s="271"/>
+      <c r="K14" s="271"/>
+      <c r="L14" s="271"/>
+      <c r="M14" s="271"/>
+      <c r="N14" s="271"/>
+      <c r="O14" s="271"/>
+      <c r="P14" s="271"/>
+      <c r="Q14" s="271"/>
+      <c r="R14" s="271"/>
+      <c r="S14" s="271"/>
+      <c r="T14" s="271"/>
+      <c r="U14" s="271"/>
+      <c r="V14" s="271"/>
+      <c r="W14" s="271"/>
+      <c r="X14" s="271"/>
+      <c r="Y14" s="271"/>
+      <c r="Z14" s="271"/>
+      <c r="AA14" s="271"/>
+      <c r="AB14" s="271"/>
+      <c r="AC14" s="271"/>
+      <c r="AD14" s="271"/>
+      <c r="AE14" s="271"/>
+      <c r="AF14" s="271"/>
+      <c r="AG14" s="271"/>
+      <c r="AH14" s="271"/>
     </row>
     <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="263" t="s">
+      <c r="D15" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="264"/>
-      <c r="F15" s="264"/>
-      <c r="G15" s="265"/>
+      <c r="E15" s="266"/>
+      <c r="F15" s="266"/>
+      <c r="G15" s="267"/>
       <c r="H15" s="146" t="s">
         <v>114</v>
       </c>
@@ -11032,30 +11033,30 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="271"/>
-      <c r="I19" s="271"/>
-      <c r="J19" s="271"/>
-      <c r="K19" s="271"/>
-      <c r="L19" s="271"/>
-      <c r="M19" s="271"/>
-      <c r="N19" s="271"/>
-      <c r="O19" s="269"/>
-      <c r="P19" s="270"/>
-      <c r="Q19" s="270"/>
-      <c r="R19" s="270"/>
-      <c r="S19" s="270"/>
-      <c r="T19" s="270"/>
-      <c r="U19" s="270"/>
-      <c r="V19" s="270"/>
-      <c r="W19" s="270"/>
-      <c r="X19" s="270"/>
-      <c r="Y19" s="270"/>
-      <c r="Z19" s="270"/>
-      <c r="AA19" s="270"/>
-      <c r="AB19" s="270"/>
-      <c r="AC19" s="270"/>
-      <c r="AD19" s="270"/>
+      <c r="G19" s="270"/>
+      <c r="H19" s="270"/>
+      <c r="I19" s="270"/>
+      <c r="J19" s="270"/>
+      <c r="K19" s="270"/>
+      <c r="L19" s="270"/>
+      <c r="M19" s="270"/>
+      <c r="N19" s="270"/>
+      <c r="O19" s="268"/>
+      <c r="P19" s="269"/>
+      <c r="Q19" s="269"/>
+      <c r="R19" s="269"/>
+      <c r="S19" s="269"/>
+      <c r="T19" s="269"/>
+      <c r="U19" s="269"/>
+      <c r="V19" s="269"/>
+      <c r="W19" s="269"/>
+      <c r="X19" s="269"/>
+      <c r="Y19" s="269"/>
+      <c r="Z19" s="269"/>
+      <c r="AA19" s="269"/>
+      <c r="AB19" s="269"/>
+      <c r="AC19" s="269"/>
+      <c r="AD19" s="269"/>
       <c r="AE19" s="32"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11507,15 +11508,14 @@
     <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -11532,14 +11532,15 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11568,157 +11569,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="244" t="str">
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="189" t="s">
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="219" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="248" t="str">
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="221"/>
+      <c r="S1" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="249"/>
-      <c r="U1" s="249"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="249"/>
-      <c r="X1" s="249"/>
-      <c r="Y1" s="249"/>
-      <c r="Z1" s="250"/>
-      <c r="AA1" s="186" t="s">
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="172" t="str">
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="258">
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="272">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="259"/>
-      <c r="AI1" s="260"/>
+      <c r="AH1" s="273"/>
+      <c r="AI1" s="274"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="244" t="str">
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="252"/>
-      <c r="U2" s="252"/>
-      <c r="V2" s="252"/>
-      <c r="W2" s="252"/>
-      <c r="X2" s="252"/>
-      <c r="Y2" s="252"/>
-      <c r="Z2" s="253"/>
-      <c r="AA2" s="186" t="s">
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="172" t="str">
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="258">
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="272">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="259"/>
-      <c r="AI2" s="260"/>
+      <c r="AH2" s="273"/>
+      <c r="AI2" s="274"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="244" t="str">
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="254"/>
-      <c r="T3" s="255"/>
-      <c r="U3" s="255"/>
-      <c r="V3" s="255"/>
-      <c r="W3" s="255"/>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="255"/>
-      <c r="Z3" s="256"/>
-      <c r="AA3" s="186"/>
-      <c r="AB3" s="188"/>
-      <c r="AC3" s="172" t="str">
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="225"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="248"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="216"/>
+      <c r="AB3" s="218"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="258" t="str">
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="259"/>
-      <c r="AI3" s="260"/>
+      <c r="AH3" s="273"/>
+      <c r="AI3" s="274"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11729,17 +11730,11 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:35" x14ac:dyDescent="0.15">
       <c r="I14" s="91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11751,6 +11746,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11771,7 +11772,7 @@
   <dimension ref="A1:AL86"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="F27" sqref="F27:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -11780,163 +11781,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="244" t="str">
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="189" t="s">
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="219" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="248" t="str">
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="221"/>
+      <c r="S1" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="249"/>
-      <c r="U1" s="249"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="249"/>
-      <c r="X1" s="249"/>
-      <c r="Y1" s="249"/>
-      <c r="Z1" s="250"/>
-      <c r="AA1" s="186" t="s">
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="172" t="str">
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="258">
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="272">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="259"/>
-      <c r="AI1" s="260"/>
+      <c r="AH1" s="273"/>
+      <c r="AI1" s="274"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="244" t="str">
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="192"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="252"/>
-      <c r="U2" s="252"/>
-      <c r="V2" s="252"/>
-      <c r="W2" s="252"/>
-      <c r="X2" s="252"/>
-      <c r="Y2" s="252"/>
-      <c r="Z2" s="253"/>
-      <c r="AA2" s="186" t="s">
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="172" t="str">
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="258">
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="272">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="259"/>
-      <c r="AI2" s="260"/>
+      <c r="AH2" s="273"/>
+      <c r="AI2" s="274"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="244" t="str">
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="196"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="254"/>
-      <c r="T3" s="255"/>
-      <c r="U3" s="255"/>
-      <c r="V3" s="255"/>
-      <c r="W3" s="255"/>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="255"/>
-      <c r="Z3" s="256"/>
-      <c r="AA3" s="186"/>
-      <c r="AB3" s="188"/>
-      <c r="AC3" s="172" t="str">
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="225"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="248"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="216"/>
+      <c r="AB3" s="218"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="258" t="str">
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="259"/>
-      <c r="AI3" s="260"/>
+      <c r="AH3" s="273"/>
+      <c r="AI3" s="274"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -12054,65 +12055,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="293" t="s">
+      <c r="D8" s="348" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="295" t="s">
+      <c r="E8" s="350" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="296"/>
-      <c r="G8" s="296"/>
-      <c r="H8" s="296"/>
-      <c r="I8" s="296"/>
-      <c r="J8" s="297"/>
-      <c r="K8" s="301" t="s">
+      <c r="F8" s="351"/>
+      <c r="G8" s="351"/>
+      <c r="H8" s="351"/>
+      <c r="I8" s="351"/>
+      <c r="J8" s="352"/>
+      <c r="K8" s="356" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="296"/>
-      <c r="M8" s="296"/>
-      <c r="N8" s="297"/>
-      <c r="O8" s="302" t="s">
+      <c r="L8" s="351"/>
+      <c r="M8" s="351"/>
+      <c r="N8" s="352"/>
+      <c r="O8" s="357" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="307" t="s">
+      <c r="P8" s="324" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="308"/>
-      <c r="R8" s="308"/>
-      <c r="S8" s="308"/>
-      <c r="T8" s="308"/>
-      <c r="U8" s="309"/>
-      <c r="V8" s="304" t="s">
+      <c r="Q8" s="325"/>
+      <c r="R8" s="325"/>
+      <c r="S8" s="325"/>
+      <c r="T8" s="325"/>
+      <c r="U8" s="326"/>
+      <c r="V8" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="W8" s="304"/>
-      <c r="X8" s="304"/>
-      <c r="Y8" s="304"/>
-      <c r="Z8" s="304"/>
-      <c r="AA8" s="304"/>
-      <c r="AB8" s="304"/>
-      <c r="AC8" s="304"/>
-      <c r="AD8" s="304"/>
-      <c r="AE8" s="304"/>
-      <c r="AF8" s="304"/>
-      <c r="AG8" s="304"/>
-      <c r="AH8" s="304"/>
+      <c r="W8" s="359"/>
+      <c r="X8" s="359"/>
+      <c r="Y8" s="359"/>
+      <c r="Z8" s="359"/>
+      <c r="AA8" s="359"/>
+      <c r="AB8" s="359"/>
+      <c r="AC8" s="359"/>
+      <c r="AD8" s="359"/>
+      <c r="AE8" s="359"/>
+      <c r="AF8" s="359"/>
+      <c r="AG8" s="359"/>
+      <c r="AH8" s="359"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="294"/>
-      <c r="E9" s="298"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="299"/>
-      <c r="J9" s="300"/>
-      <c r="K9" s="298"/>
-      <c r="L9" s="299"/>
-      <c r="M9" s="299"/>
-      <c r="N9" s="300"/>
-      <c r="O9" s="303"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="353"/>
+      <c r="F9" s="354"/>
+      <c r="G9" s="354"/>
+      <c r="H9" s="354"/>
+      <c r="I9" s="354"/>
+      <c r="J9" s="355"/>
+      <c r="K9" s="353"/>
+      <c r="L9" s="354"/>
+      <c r="M9" s="354"/>
+      <c r="N9" s="355"/>
+      <c r="O9" s="358"/>
       <c r="P9" s="90" t="s">
         <v>45</v>
       </c>
@@ -12125,23 +12126,23 @@
       <c r="S9" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="305" t="s">
+      <c r="T9" s="322" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="306"/>
-      <c r="V9" s="304"/>
-      <c r="W9" s="304"/>
-      <c r="X9" s="304"/>
-      <c r="Y9" s="304"/>
-      <c r="Z9" s="304"/>
-      <c r="AA9" s="304"/>
-      <c r="AB9" s="304"/>
-      <c r="AC9" s="304"/>
-      <c r="AD9" s="304"/>
-      <c r="AE9" s="304"/>
-      <c r="AF9" s="304"/>
-      <c r="AG9" s="304"/>
-      <c r="AH9" s="304"/>
+      <c r="U9" s="323"/>
+      <c r="V9" s="359"/>
+      <c r="W9" s="359"/>
+      <c r="X9" s="359"/>
+      <c r="Y9" s="359"/>
+      <c r="Z9" s="359"/>
+      <c r="AA9" s="359"/>
+      <c r="AB9" s="359"/>
+      <c r="AC9" s="359"/>
+      <c r="AD9" s="359"/>
+      <c r="AE9" s="359"/>
+      <c r="AF9" s="359"/>
+      <c r="AG9" s="359"/>
+      <c r="AH9" s="359"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="30"/>
@@ -12149,20 +12150,20 @@
       <c r="D10" s="114">
         <v>1</v>
       </c>
-      <c r="E10" s="283" t="s">
+      <c r="E10" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="217"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="218"/>
-      <c r="K10" s="216" t="s">
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="178" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="217"/>
-      <c r="M10" s="217"/>
-      <c r="N10" s="218"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="180"/>
       <c r="O10" s="115" t="s">
         <v>74</v>
       </c>
@@ -12178,23 +12179,23 @@
       <c r="S10" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="T10" s="278" t="s">
+      <c r="T10" s="337" t="s">
         <v>77</v>
       </c>
-      <c r="U10" s="279"/>
-      <c r="V10" s="216"/>
-      <c r="W10" s="217"/>
-      <c r="X10" s="217"/>
-      <c r="Y10" s="217"/>
-      <c r="Z10" s="217"/>
-      <c r="AA10" s="217"/>
-      <c r="AB10" s="217"/>
-      <c r="AC10" s="217"/>
-      <c r="AD10" s="217"/>
-      <c r="AE10" s="217"/>
-      <c r="AF10" s="217"/>
-      <c r="AG10" s="217"/>
-      <c r="AH10" s="218"/>
+      <c r="U10" s="338"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="179"/>
+      <c r="X10" s="179"/>
+      <c r="Y10" s="179"/>
+      <c r="Z10" s="179"/>
+      <c r="AA10" s="179"/>
+      <c r="AB10" s="179"/>
+      <c r="AC10" s="179"/>
+      <c r="AD10" s="179"/>
+      <c r="AE10" s="179"/>
+      <c r="AF10" s="179"/>
+      <c r="AG10" s="179"/>
+      <c r="AH10" s="180"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B11" s="30"/>
@@ -12202,20 +12203,20 @@
       <c r="D11" s="114">
         <v>2</v>
       </c>
-      <c r="E11" s="283" t="s">
+      <c r="E11" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="217"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="216" t="s">
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="178" t="s">
         <v>117</v>
       </c>
-      <c r="L11" s="217"/>
-      <c r="M11" s="217"/>
-      <c r="N11" s="218"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="179"/>
+      <c r="N11" s="180"/>
       <c r="O11" s="116" t="s">
         <v>74</v>
       </c>
@@ -12231,23 +12232,23 @@
       <c r="S11" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="T11" s="278" t="s">
+      <c r="T11" s="337" t="s">
         <v>77</v>
       </c>
-      <c r="U11" s="279"/>
-      <c r="V11" s="216"/>
-      <c r="W11" s="217"/>
-      <c r="X11" s="217"/>
-      <c r="Y11" s="217"/>
-      <c r="Z11" s="217"/>
-      <c r="AA11" s="217"/>
-      <c r="AB11" s="217"/>
-      <c r="AC11" s="217"/>
-      <c r="AD11" s="217"/>
-      <c r="AE11" s="217"/>
-      <c r="AF11" s="217"/>
-      <c r="AG11" s="217"/>
-      <c r="AH11" s="218"/>
+      <c r="U11" s="338"/>
+      <c r="V11" s="178"/>
+      <c r="W11" s="179"/>
+      <c r="X11" s="179"/>
+      <c r="Y11" s="179"/>
+      <c r="Z11" s="179"/>
+      <c r="AA11" s="179"/>
+      <c r="AB11" s="179"/>
+      <c r="AC11" s="179"/>
+      <c r="AD11" s="179"/>
+      <c r="AE11" s="179"/>
+      <c r="AF11" s="179"/>
+      <c r="AG11" s="179"/>
+      <c r="AH11" s="180"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="30"/>
@@ -12255,20 +12256,20 @@
       <c r="D12" s="114">
         <v>3</v>
       </c>
-      <c r="E12" s="283" t="s">
+      <c r="E12" s="184" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="217"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="217"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="216" t="s">
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="178" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="217"/>
-      <c r="M12" s="217"/>
-      <c r="N12" s="218"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="179"/>
+      <c r="N12" s="180"/>
       <c r="O12" s="116" t="s">
         <v>75</v>
       </c>
@@ -12284,23 +12285,23 @@
       <c r="S12" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="T12" s="278" t="s">
+      <c r="T12" s="337" t="s">
         <v>77</v>
       </c>
-      <c r="U12" s="279"/>
-      <c r="V12" s="216"/>
-      <c r="W12" s="217"/>
-      <c r="X12" s="217"/>
-      <c r="Y12" s="217"/>
-      <c r="Z12" s="217"/>
-      <c r="AA12" s="217"/>
-      <c r="AB12" s="217"/>
-      <c r="AC12" s="217"/>
-      <c r="AD12" s="217"/>
-      <c r="AE12" s="217"/>
-      <c r="AF12" s="217"/>
-      <c r="AG12" s="217"/>
-      <c r="AH12" s="218"/>
+      <c r="U12" s="338"/>
+      <c r="V12" s="178"/>
+      <c r="W12" s="179"/>
+      <c r="X12" s="179"/>
+      <c r="Y12" s="179"/>
+      <c r="Z12" s="179"/>
+      <c r="AA12" s="179"/>
+      <c r="AB12" s="179"/>
+      <c r="AC12" s="179"/>
+      <c r="AD12" s="179"/>
+      <c r="AE12" s="179"/>
+      <c r="AF12" s="179"/>
+      <c r="AG12" s="179"/>
+      <c r="AH12" s="180"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="30"/>
@@ -12450,40 +12451,40 @@
       <c r="D17" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="364" t="s">
+      <c r="E17" s="277" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="365"/>
-      <c r="G17" s="366"/>
-      <c r="H17" s="280" t="s">
+      <c r="F17" s="278"/>
+      <c r="G17" s="279"/>
+      <c r="H17" s="364" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="281"/>
-      <c r="J17" s="281"/>
-      <c r="K17" s="281"/>
-      <c r="L17" s="281"/>
-      <c r="M17" s="281"/>
-      <c r="N17" s="281"/>
-      <c r="O17" s="281"/>
-      <c r="P17" s="281"/>
-      <c r="Q17" s="281"/>
-      <c r="R17" s="281"/>
-      <c r="S17" s="281"/>
-      <c r="T17" s="281"/>
-      <c r="U17" s="281"/>
-      <c r="V17" s="281"/>
-      <c r="W17" s="281"/>
-      <c r="X17" s="281"/>
-      <c r="Y17" s="281"/>
-      <c r="Z17" s="281"/>
-      <c r="AA17" s="281"/>
-      <c r="AB17" s="281"/>
-      <c r="AC17" s="281"/>
-      <c r="AD17" s="281"/>
-      <c r="AE17" s="281"/>
-      <c r="AF17" s="281"/>
-      <c r="AG17" s="281"/>
-      <c r="AH17" s="282"/>
+      <c r="I17" s="365"/>
+      <c r="J17" s="365"/>
+      <c r="K17" s="365"/>
+      <c r="L17" s="365"/>
+      <c r="M17" s="365"/>
+      <c r="N17" s="365"/>
+      <c r="O17" s="365"/>
+      <c r="P17" s="365"/>
+      <c r="Q17" s="365"/>
+      <c r="R17" s="365"/>
+      <c r="S17" s="365"/>
+      <c r="T17" s="365"/>
+      <c r="U17" s="365"/>
+      <c r="V17" s="365"/>
+      <c r="W17" s="365"/>
+      <c r="X17" s="365"/>
+      <c r="Y17" s="365"/>
+      <c r="Z17" s="365"/>
+      <c r="AA17" s="365"/>
+      <c r="AB17" s="365"/>
+      <c r="AC17" s="365"/>
+      <c r="AD17" s="365"/>
+      <c r="AE17" s="365"/>
+      <c r="AF17" s="365"/>
+      <c r="AG17" s="365"/>
+      <c r="AH17" s="366"/>
     </row>
     <row r="18" spans="1:35" s="88" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="30"/>
@@ -12491,40 +12492,40 @@
       <c r="D18" s="114">
         <v>1</v>
       </c>
-      <c r="E18" s="283" t="s">
+      <c r="E18" s="184" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="217"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="283" t="s">
+      <c r="F18" s="179"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="I18" s="217"/>
-      <c r="J18" s="217"/>
-      <c r="K18" s="217"/>
-      <c r="L18" s="217"/>
-      <c r="M18" s="217"/>
-      <c r="N18" s="217"/>
-      <c r="O18" s="217"/>
-      <c r="P18" s="217"/>
-      <c r="Q18" s="217"/>
-      <c r="R18" s="217"/>
-      <c r="S18" s="217"/>
-      <c r="T18" s="217"/>
-      <c r="U18" s="217"/>
-      <c r="V18" s="217"/>
-      <c r="W18" s="217"/>
-      <c r="X18" s="217"/>
-      <c r="Y18" s="217"/>
-      <c r="Z18" s="217"/>
-      <c r="AA18" s="217"/>
-      <c r="AB18" s="217"/>
-      <c r="AC18" s="217"/>
-      <c r="AD18" s="217"/>
-      <c r="AE18" s="217"/>
-      <c r="AF18" s="217"/>
-      <c r="AG18" s="217"/>
-      <c r="AH18" s="218"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="179"/>
+      <c r="N18" s="179"/>
+      <c r="O18" s="179"/>
+      <c r="P18" s="179"/>
+      <c r="Q18" s="179"/>
+      <c r="R18" s="179"/>
+      <c r="S18" s="179"/>
+      <c r="T18" s="179"/>
+      <c r="U18" s="179"/>
+      <c r="V18" s="179"/>
+      <c r="W18" s="179"/>
+      <c r="X18" s="179"/>
+      <c r="Y18" s="179"/>
+      <c r="Z18" s="179"/>
+      <c r="AA18" s="179"/>
+      <c r="AB18" s="179"/>
+      <c r="AC18" s="179"/>
+      <c r="AD18" s="179"/>
+      <c r="AE18" s="179"/>
+      <c r="AF18" s="179"/>
+      <c r="AG18" s="179"/>
+      <c r="AH18" s="180"/>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
@@ -12532,40 +12533,40 @@
       <c r="D19" s="114">
         <v>2</v>
       </c>
-      <c r="E19" s="283" t="s">
+      <c r="E19" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="217"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="283" t="s">
+      <c r="F19" s="179"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="184" t="s">
         <v>111</v>
       </c>
-      <c r="I19" s="217"/>
-      <c r="J19" s="217"/>
-      <c r="K19" s="217"/>
-      <c r="L19" s="217"/>
-      <c r="M19" s="217"/>
-      <c r="N19" s="217"/>
-      <c r="O19" s="217"/>
-      <c r="P19" s="217"/>
-      <c r="Q19" s="217"/>
-      <c r="R19" s="217"/>
-      <c r="S19" s="217"/>
-      <c r="T19" s="217"/>
-      <c r="U19" s="217"/>
-      <c r="V19" s="217"/>
-      <c r="W19" s="217"/>
-      <c r="X19" s="217"/>
-      <c r="Y19" s="217"/>
-      <c r="Z19" s="217"/>
-      <c r="AA19" s="217"/>
-      <c r="AB19" s="217"/>
-      <c r="AC19" s="217"/>
-      <c r="AD19" s="217"/>
-      <c r="AE19" s="217"/>
-      <c r="AF19" s="217"/>
-      <c r="AG19" s="217"/>
-      <c r="AH19" s="218"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="179"/>
+      <c r="N19" s="179"/>
+      <c r="O19" s="179"/>
+      <c r="P19" s="179"/>
+      <c r="Q19" s="179"/>
+      <c r="R19" s="179"/>
+      <c r="S19" s="179"/>
+      <c r="T19" s="179"/>
+      <c r="U19" s="179"/>
+      <c r="V19" s="179"/>
+      <c r="W19" s="179"/>
+      <c r="X19" s="179"/>
+      <c r="Y19" s="179"/>
+      <c r="Z19" s="179"/>
+      <c r="AA19" s="179"/>
+      <c r="AB19" s="179"/>
+      <c r="AC19" s="179"/>
+      <c r="AD19" s="179"/>
+      <c r="AE19" s="179"/>
+      <c r="AF19" s="179"/>
+      <c r="AG19" s="179"/>
+      <c r="AH19" s="180"/>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
@@ -12573,40 +12574,40 @@
       <c r="D20" s="114">
         <v>3</v>
       </c>
-      <c r="E20" s="283" t="s">
+      <c r="E20" s="184" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="217"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="283" t="s">
+      <c r="F20" s="179"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="184" t="s">
         <v>119</v>
       </c>
-      <c r="I20" s="217"/>
-      <c r="J20" s="217"/>
-      <c r="K20" s="217"/>
-      <c r="L20" s="217"/>
-      <c r="M20" s="217"/>
-      <c r="N20" s="217"/>
-      <c r="O20" s="217"/>
-      <c r="P20" s="217"/>
-      <c r="Q20" s="217"/>
-      <c r="R20" s="217"/>
-      <c r="S20" s="217"/>
-      <c r="T20" s="217"/>
-      <c r="U20" s="217"/>
-      <c r="V20" s="217"/>
-      <c r="W20" s="217"/>
-      <c r="X20" s="217"/>
-      <c r="Y20" s="217"/>
-      <c r="Z20" s="217"/>
-      <c r="AA20" s="217"/>
-      <c r="AB20" s="217"/>
-      <c r="AC20" s="217"/>
-      <c r="AD20" s="217"/>
-      <c r="AE20" s="217"/>
-      <c r="AF20" s="217"/>
-      <c r="AG20" s="217"/>
-      <c r="AH20" s="218"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="179"/>
+      <c r="M20" s="179"/>
+      <c r="N20" s="179"/>
+      <c r="O20" s="179"/>
+      <c r="P20" s="179"/>
+      <c r="Q20" s="179"/>
+      <c r="R20" s="179"/>
+      <c r="S20" s="179"/>
+      <c r="T20" s="179"/>
+      <c r="U20" s="179"/>
+      <c r="V20" s="179"/>
+      <c r="W20" s="179"/>
+      <c r="X20" s="179"/>
+      <c r="Y20" s="179"/>
+      <c r="Z20" s="179"/>
+      <c r="AA20" s="179"/>
+      <c r="AB20" s="179"/>
+      <c r="AC20" s="179"/>
+      <c r="AD20" s="179"/>
+      <c r="AE20" s="179"/>
+      <c r="AF20" s="179"/>
+      <c r="AG20" s="179"/>
+      <c r="AH20" s="180"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B21" s="87"/>
@@ -12791,10 +12792,10 @@
       <c r="B26" s="87"/>
       <c r="C26" s="93"/>
       <c r="E26" s="162" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="163" t="s">
         <v>135</v>
-      </c>
-      <c r="F26" s="163" t="s">
-        <v>136</v>
       </c>
       <c r="G26" s="164"/>
       <c r="H26" s="164"/>
@@ -12802,7 +12803,7 @@
       <c r="J26" s="164"/>
       <c r="K26" s="165"/>
       <c r="L26" s="163" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M26" s="164"/>
       <c r="N26" s="164"/>
@@ -12814,10 +12815,10 @@
       <c r="T26" s="164"/>
       <c r="U26" s="165"/>
       <c r="V26" s="163" t="s">
+        <v>137</v>
+      </c>
+      <c r="W26" s="163" t="s">
         <v>138</v>
-      </c>
-      <c r="W26" s="163" t="s">
-        <v>139</v>
       </c>
       <c r="X26" s="164"/>
       <c r="Y26" s="164"/>
@@ -12838,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="154" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G27" s="155"/>
       <c r="H27" s="155"/>
@@ -12846,7 +12847,7 @@
       <c r="J27" s="155"/>
       <c r="K27" s="156"/>
       <c r="L27" s="154" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M27" s="155"/>
       <c r="N27" s="155"/>
@@ -12859,7 +12860,7 @@
       <c r="U27" s="156"/>
       <c r="V27" s="154"/>
       <c r="W27" s="157" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X27" s="158"/>
       <c r="Y27" s="158"/>
@@ -12880,7 +12881,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="157" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G28" s="158"/>
       <c r="H28" s="158"/>
@@ -12888,7 +12889,7 @@
       <c r="J28" s="158"/>
       <c r="K28" s="159"/>
       <c r="L28" s="157" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M28" s="158"/>
       <c r="N28" s="151"/>
@@ -12901,7 +12902,7 @@
       <c r="U28" s="159"/>
       <c r="V28" s="157"/>
       <c r="W28" s="157" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X28" s="158"/>
       <c r="Y28" s="158"/>
@@ -13117,43 +13118,43 @@
       <c r="E36" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="310" t="s">
+      <c r="F36" s="327" t="s">
         <v>84</v>
       </c>
-      <c r="G36" s="311"/>
-      <c r="H36" s="311"/>
-      <c r="I36" s="311"/>
-      <c r="J36" s="311"/>
-      <c r="K36" s="312"/>
-      <c r="L36" s="313" t="s">
+      <c r="G36" s="328"/>
+      <c r="H36" s="328"/>
+      <c r="I36" s="328"/>
+      <c r="J36" s="328"/>
+      <c r="K36" s="329"/>
+      <c r="L36" s="330" t="s">
         <v>85</v>
       </c>
-      <c r="M36" s="311"/>
-      <c r="N36" s="311"/>
-      <c r="O36" s="311"/>
-      <c r="P36" s="311"/>
-      <c r="Q36" s="311"/>
-      <c r="R36" s="311"/>
-      <c r="S36" s="311"/>
-      <c r="T36" s="311"/>
-      <c r="U36" s="312"/>
-      <c r="V36" s="314" t="s">
+      <c r="M36" s="328"/>
+      <c r="N36" s="328"/>
+      <c r="O36" s="328"/>
+      <c r="P36" s="328"/>
+      <c r="Q36" s="328"/>
+      <c r="R36" s="328"/>
+      <c r="S36" s="328"/>
+      <c r="T36" s="328"/>
+      <c r="U36" s="329"/>
+      <c r="V36" s="331" t="s">
         <v>86</v>
       </c>
-      <c r="W36" s="315"/>
-      <c r="X36" s="316"/>
-      <c r="Y36" s="314" t="s">
+      <c r="W36" s="332"/>
+      <c r="X36" s="333"/>
+      <c r="Y36" s="331" t="s">
         <v>87</v>
       </c>
-      <c r="Z36" s="315"/>
-      <c r="AA36" s="315"/>
-      <c r="AB36" s="316"/>
-      <c r="AC36" s="317" t="s">
+      <c r="Z36" s="332"/>
+      <c r="AA36" s="332"/>
+      <c r="AB36" s="333"/>
+      <c r="AC36" s="334" t="s">
         <v>88</v>
       </c>
-      <c r="AD36" s="318"/>
-      <c r="AE36" s="318"/>
-      <c r="AF36" s="319"/>
+      <c r="AD36" s="335"/>
+      <c r="AE36" s="335"/>
+      <c r="AF36" s="336"/>
       <c r="AG36" s="48"/>
       <c r="AH36" s="48"/>
       <c r="AI36" s="48"/>
@@ -13166,43 +13167,43 @@
       <c r="E37" s="129">
         <v>1</v>
       </c>
-      <c r="F37" s="363" t="s">
+      <c r="F37" s="342" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="328"/>
-      <c r="H37" s="328"/>
-      <c r="I37" s="328"/>
-      <c r="J37" s="328"/>
-      <c r="K37" s="329"/>
-      <c r="L37" s="327" t="s">
+      <c r="G37" s="287"/>
+      <c r="H37" s="287"/>
+      <c r="I37" s="287"/>
+      <c r="J37" s="287"/>
+      <c r="K37" s="288"/>
+      <c r="L37" s="286" t="s">
         <v>90</v>
       </c>
-      <c r="M37" s="328"/>
-      <c r="N37" s="328"/>
-      <c r="O37" s="328"/>
-      <c r="P37" s="328"/>
-      <c r="Q37" s="328"/>
-      <c r="R37" s="328"/>
-      <c r="S37" s="328"/>
-      <c r="T37" s="328"/>
-      <c r="U37" s="329"/>
-      <c r="V37" s="335" t="s">
+      <c r="M37" s="287"/>
+      <c r="N37" s="287"/>
+      <c r="O37" s="287"/>
+      <c r="P37" s="287"/>
+      <c r="Q37" s="287"/>
+      <c r="R37" s="287"/>
+      <c r="S37" s="287"/>
+      <c r="T37" s="287"/>
+      <c r="U37" s="288"/>
+      <c r="V37" s="294" t="s">
         <v>91</v>
       </c>
-      <c r="W37" s="336"/>
-      <c r="X37" s="337"/>
-      <c r="Y37" s="332" t="s">
+      <c r="W37" s="295"/>
+      <c r="X37" s="296"/>
+      <c r="Y37" s="291" t="s">
         <v>92</v>
       </c>
-      <c r="Z37" s="333"/>
-      <c r="AA37" s="333"/>
-      <c r="AB37" s="334"/>
-      <c r="AC37" s="327" t="s">
+      <c r="Z37" s="292"/>
+      <c r="AA37" s="292"/>
+      <c r="AB37" s="293"/>
+      <c r="AC37" s="286" t="s">
         <v>122</v>
       </c>
-      <c r="AD37" s="328"/>
-      <c r="AE37" s="328"/>
-      <c r="AF37" s="329"/>
+      <c r="AD37" s="287"/>
+      <c r="AE37" s="287"/>
+      <c r="AF37" s="288"/>
       <c r="AG37" s="48"/>
       <c r="AH37" s="48"/>
       <c r="AI37" s="48"/>
@@ -13438,7 +13439,7 @@
       <c r="C44" s="48"/>
       <c r="D44" s="48"/>
       <c r="E44" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F44" s="48"/>
       <c r="G44" s="48"/>
@@ -13626,30 +13627,30 @@
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
       <c r="D49" s="48"/>
-      <c r="E49" s="354" t="s">
+      <c r="E49" s="316" t="s">
         <v>93</v>
       </c>
-      <c r="F49" s="355"/>
-      <c r="G49" s="355"/>
-      <c r="H49" s="355"/>
-      <c r="I49" s="355"/>
-      <c r="J49" s="355"/>
-      <c r="K49" s="355"/>
-      <c r="L49" s="355"/>
-      <c r="M49" s="355"/>
-      <c r="N49" s="356"/>
-      <c r="O49" s="357" t="s">
+      <c r="F49" s="317"/>
+      <c r="G49" s="317"/>
+      <c r="H49" s="317"/>
+      <c r="I49" s="317"/>
+      <c r="J49" s="317"/>
+      <c r="K49" s="317"/>
+      <c r="L49" s="317"/>
+      <c r="M49" s="317"/>
+      <c r="N49" s="318"/>
+      <c r="O49" s="319" t="s">
         <v>94</v>
       </c>
-      <c r="P49" s="358"/>
-      <c r="Q49" s="358"/>
-      <c r="R49" s="358"/>
-      <c r="S49" s="358"/>
-      <c r="T49" s="358"/>
-      <c r="U49" s="358"/>
-      <c r="V49" s="358"/>
-      <c r="W49" s="358"/>
-      <c r="X49" s="359"/>
+      <c r="P49" s="320"/>
+      <c r="Q49" s="320"/>
+      <c r="R49" s="320"/>
+      <c r="S49" s="320"/>
+      <c r="T49" s="320"/>
+      <c r="U49" s="320"/>
+      <c r="V49" s="320"/>
+      <c r="W49" s="320"/>
+      <c r="X49" s="321"/>
       <c r="Y49" s="48"/>
       <c r="Z49" s="48"/>
       <c r="AA49" s="48"/>
@@ -13667,30 +13668,30 @@
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
       <c r="D50" s="48"/>
-      <c r="E50" s="342" t="s">
+      <c r="E50" s="304" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="343"/>
-      <c r="G50" s="343"/>
-      <c r="H50" s="343"/>
-      <c r="I50" s="343"/>
-      <c r="J50" s="343"/>
-      <c r="K50" s="343"/>
-      <c r="L50" s="343"/>
-      <c r="M50" s="343"/>
-      <c r="N50" s="344"/>
-      <c r="O50" s="360" t="s">
+      <c r="F50" s="305"/>
+      <c r="G50" s="305"/>
+      <c r="H50" s="305"/>
+      <c r="I50" s="305"/>
+      <c r="J50" s="305"/>
+      <c r="K50" s="305"/>
+      <c r="L50" s="305"/>
+      <c r="M50" s="305"/>
+      <c r="N50" s="306"/>
+      <c r="O50" s="339" t="s">
         <v>99</v>
       </c>
-      <c r="P50" s="361"/>
-      <c r="Q50" s="361"/>
-      <c r="R50" s="361"/>
-      <c r="S50" s="361"/>
-      <c r="T50" s="361"/>
-      <c r="U50" s="361"/>
-      <c r="V50" s="361"/>
-      <c r="W50" s="361"/>
-      <c r="X50" s="362"/>
+      <c r="P50" s="340"/>
+      <c r="Q50" s="340"/>
+      <c r="R50" s="340"/>
+      <c r="S50" s="340"/>
+      <c r="T50" s="340"/>
+      <c r="U50" s="340"/>
+      <c r="V50" s="340"/>
+      <c r="W50" s="340"/>
+      <c r="X50" s="341"/>
       <c r="Y50" s="48"/>
       <c r="Z50" s="48"/>
       <c r="AA50" s="48"/>
@@ -13708,28 +13709,28 @@
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
       <c r="D51" s="48"/>
-      <c r="E51" s="345"/>
-      <c r="F51" s="346"/>
-      <c r="G51" s="346"/>
-      <c r="H51" s="346"/>
-      <c r="I51" s="346"/>
-      <c r="J51" s="346"/>
-      <c r="K51" s="346"/>
-      <c r="L51" s="346"/>
-      <c r="M51" s="346"/>
-      <c r="N51" s="347"/>
-      <c r="O51" s="360" t="s">
+      <c r="E51" s="307"/>
+      <c r="F51" s="308"/>
+      <c r="G51" s="308"/>
+      <c r="H51" s="308"/>
+      <c r="I51" s="308"/>
+      <c r="J51" s="308"/>
+      <c r="K51" s="308"/>
+      <c r="L51" s="308"/>
+      <c r="M51" s="308"/>
+      <c r="N51" s="309"/>
+      <c r="O51" s="339" t="s">
         <v>101</v>
       </c>
-      <c r="P51" s="361"/>
-      <c r="Q51" s="361"/>
-      <c r="R51" s="361"/>
-      <c r="S51" s="361"/>
-      <c r="T51" s="361"/>
-      <c r="U51" s="361"/>
-      <c r="V51" s="361"/>
-      <c r="W51" s="361"/>
-      <c r="X51" s="362"/>
+      <c r="P51" s="340"/>
+      <c r="Q51" s="340"/>
+      <c r="R51" s="340"/>
+      <c r="S51" s="340"/>
+      <c r="T51" s="340"/>
+      <c r="U51" s="340"/>
+      <c r="V51" s="340"/>
+      <c r="W51" s="340"/>
+      <c r="X51" s="341"/>
       <c r="Y51" s="48"/>
       <c r="Z51" s="48"/>
       <c r="AA51" s="48"/>
@@ -13747,28 +13748,28 @@
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
       <c r="D52" s="48"/>
-      <c r="E52" s="348"/>
-      <c r="F52" s="349"/>
-      <c r="G52" s="349"/>
-      <c r="H52" s="349"/>
-      <c r="I52" s="349"/>
-      <c r="J52" s="349"/>
-      <c r="K52" s="349"/>
-      <c r="L52" s="349"/>
-      <c r="M52" s="349"/>
-      <c r="N52" s="350"/>
-      <c r="O52" s="351" t="s">
+      <c r="E52" s="310"/>
+      <c r="F52" s="311"/>
+      <c r="G52" s="311"/>
+      <c r="H52" s="311"/>
+      <c r="I52" s="311"/>
+      <c r="J52" s="311"/>
+      <c r="K52" s="311"/>
+      <c r="L52" s="311"/>
+      <c r="M52" s="311"/>
+      <c r="N52" s="312"/>
+      <c r="O52" s="313" t="s">
         <v>102</v>
       </c>
-      <c r="P52" s="352"/>
-      <c r="Q52" s="352"/>
-      <c r="R52" s="352"/>
-      <c r="S52" s="352"/>
-      <c r="T52" s="352"/>
-      <c r="U52" s="352"/>
-      <c r="V52" s="352"/>
-      <c r="W52" s="352"/>
-      <c r="X52" s="353"/>
+      <c r="P52" s="314"/>
+      <c r="Q52" s="314"/>
+      <c r="R52" s="314"/>
+      <c r="S52" s="314"/>
+      <c r="T52" s="314"/>
+      <c r="U52" s="314"/>
+      <c r="V52" s="314"/>
+      <c r="W52" s="314"/>
+      <c r="X52" s="315"/>
       <c r="Y52" s="48"/>
       <c r="Z52" s="48"/>
       <c r="AA52" s="48"/>
@@ -13786,28 +13787,28 @@
       <c r="B53" s="48"/>
       <c r="C53" s="48"/>
       <c r="D53" s="48"/>
-      <c r="E53" s="341" t="s">
+      <c r="E53" s="301" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="273"/>
-      <c r="G53" s="273"/>
-      <c r="H53" s="273"/>
-      <c r="I53" s="273"/>
-      <c r="J53" s="273"/>
-      <c r="K53" s="273"/>
-      <c r="L53" s="273"/>
-      <c r="M53" s="273"/>
-      <c r="N53" s="273"/>
-      <c r="O53" s="273"/>
-      <c r="P53" s="273"/>
-      <c r="Q53" s="273"/>
-      <c r="R53" s="273"/>
-      <c r="S53" s="273"/>
-      <c r="T53" s="273"/>
-      <c r="U53" s="273"/>
-      <c r="V53" s="273"/>
-      <c r="W53" s="273"/>
-      <c r="X53" s="274"/>
+      <c r="F53" s="302"/>
+      <c r="G53" s="302"/>
+      <c r="H53" s="302"/>
+      <c r="I53" s="302"/>
+      <c r="J53" s="302"/>
+      <c r="K53" s="302"/>
+      <c r="L53" s="302"/>
+      <c r="M53" s="302"/>
+      <c r="N53" s="302"/>
+      <c r="O53" s="302"/>
+      <c r="P53" s="302"/>
+      <c r="Q53" s="302"/>
+      <c r="R53" s="302"/>
+      <c r="S53" s="302"/>
+      <c r="T53" s="302"/>
+      <c r="U53" s="302"/>
+      <c r="V53" s="302"/>
+      <c r="W53" s="302"/>
+      <c r="X53" s="303"/>
       <c r="Y53" s="48"/>
       <c r="Z53" s="48"/>
       <c r="AA53" s="48"/>
@@ -14021,28 +14022,28 @@
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
       <c r="D59" s="48"/>
-      <c r="E59" s="272" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="273"/>
-      <c r="G59" s="273"/>
-      <c r="H59" s="273"/>
-      <c r="I59" s="273"/>
-      <c r="J59" s="273"/>
-      <c r="K59" s="273"/>
-      <c r="L59" s="273"/>
-      <c r="M59" s="273"/>
-      <c r="N59" s="273"/>
-      <c r="O59" s="273"/>
-      <c r="P59" s="273"/>
-      <c r="Q59" s="273"/>
-      <c r="R59" s="273"/>
-      <c r="S59" s="273"/>
-      <c r="T59" s="273"/>
-      <c r="U59" s="273"/>
-      <c r="V59" s="273"/>
-      <c r="W59" s="273"/>
-      <c r="X59" s="274"/>
+      <c r="E59" s="360" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="302"/>
+      <c r="G59" s="302"/>
+      <c r="H59" s="302"/>
+      <c r="I59" s="302"/>
+      <c r="J59" s="302"/>
+      <c r="K59" s="302"/>
+      <c r="L59" s="302"/>
+      <c r="M59" s="302"/>
+      <c r="N59" s="302"/>
+      <c r="O59" s="302"/>
+      <c r="P59" s="302"/>
+      <c r="Q59" s="302"/>
+      <c r="R59" s="302"/>
+      <c r="S59" s="302"/>
+      <c r="T59" s="302"/>
+      <c r="U59" s="302"/>
+      <c r="V59" s="302"/>
+      <c r="W59" s="302"/>
+      <c r="X59" s="303"/>
       <c r="Y59" s="48"/>
       <c r="Z59" s="48"/>
       <c r="AA59" s="48"/>
@@ -14099,12 +14100,12 @@
       <c r="D61" s="48"/>
       <c r="E61" s="142"/>
       <c r="F61" s="91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G61" s="133"/>
       <c r="H61" s="134"/>
       <c r="I61" s="133" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J61" s="135"/>
       <c r="L61" s="134"/>
@@ -14212,7 +14213,7 @@
       <c r="C64" s="48"/>
       <c r="D64" s="48"/>
       <c r="E64" s="133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F64" s="134"/>
       <c r="G64" s="134"/>
@@ -14639,44 +14640,44 @@
     <row r="77" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C77" s="30"/>
       <c r="D77" s="30"/>
-      <c r="E77" s="320" t="s">
+      <c r="E77" s="300" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="320"/>
-      <c r="G77" s="338" t="s">
+      <c r="F77" s="300"/>
+      <c r="G77" s="297" t="s">
         <v>131</v>
       </c>
-      <c r="H77" s="339"/>
-      <c r="I77" s="339"/>
-      <c r="J77" s="339"/>
-      <c r="K77" s="339"/>
-      <c r="L77" s="340"/>
-      <c r="M77" s="320" t="s">
+      <c r="H77" s="298"/>
+      <c r="I77" s="298"/>
+      <c r="J77" s="298"/>
+      <c r="K77" s="298"/>
+      <c r="L77" s="299"/>
+      <c r="M77" s="300" t="s">
         <v>22</v>
       </c>
-      <c r="N77" s="320"/>
-      <c r="O77" s="338" t="s">
+      <c r="N77" s="300"/>
+      <c r="O77" s="297" t="s">
         <v>132</v>
       </c>
-      <c r="P77" s="339"/>
-      <c r="Q77" s="339"/>
-      <c r="R77" s="339"/>
-      <c r="S77" s="339"/>
-      <c r="T77" s="339"/>
-      <c r="U77" s="339"/>
-      <c r="V77" s="339"/>
-      <c r="W77" s="339"/>
-      <c r="X77" s="339"/>
-      <c r="Y77" s="339"/>
-      <c r="Z77" s="339"/>
-      <c r="AA77" s="339"/>
-      <c r="AB77" s="339"/>
-      <c r="AC77" s="339"/>
-      <c r="AD77" s="339"/>
-      <c r="AE77" s="339"/>
-      <c r="AF77" s="339"/>
-      <c r="AG77" s="339"/>
-      <c r="AH77" s="340"/>
+      <c r="P77" s="298"/>
+      <c r="Q77" s="298"/>
+      <c r="R77" s="298"/>
+      <c r="S77" s="298"/>
+      <c r="T77" s="298"/>
+      <c r="U77" s="298"/>
+      <c r="V77" s="298"/>
+      <c r="W77" s="298"/>
+      <c r="X77" s="298"/>
+      <c r="Y77" s="298"/>
+      <c r="Z77" s="298"/>
+      <c r="AA77" s="298"/>
+      <c r="AB77" s="298"/>
+      <c r="AC77" s="298"/>
+      <c r="AD77" s="298"/>
+      <c r="AE77" s="298"/>
+      <c r="AF77" s="298"/>
+      <c r="AG77" s="298"/>
+      <c r="AH77" s="299"/>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C78" s="30"/>
@@ -14811,86 +14812,86 @@
     <row r="82" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C82" s="30"/>
       <c r="D82" s="30"/>
-      <c r="E82" s="330" t="s">
+      <c r="E82" s="289" t="s">
         <v>52</v>
       </c>
-      <c r="F82" s="321" t="s">
+      <c r="F82" s="280" t="s">
         <v>23</v>
       </c>
-      <c r="G82" s="322"/>
-      <c r="H82" s="322"/>
-      <c r="I82" s="323"/>
-      <c r="J82" s="321" t="s">
+      <c r="G82" s="281"/>
+      <c r="H82" s="281"/>
+      <c r="I82" s="282"/>
+      <c r="J82" s="280" t="s">
         <v>24</v>
       </c>
-      <c r="K82" s="322"/>
-      <c r="L82" s="322"/>
-      <c r="M82" s="323"/>
-      <c r="N82" s="291" t="s">
+      <c r="K82" s="281"/>
+      <c r="L82" s="281"/>
+      <c r="M82" s="282"/>
+      <c r="N82" s="369" t="s">
         <v>25</v>
       </c>
-      <c r="O82" s="291"/>
-      <c r="P82" s="291"/>
-      <c r="Q82" s="291"/>
-      <c r="R82" s="291"/>
-      <c r="S82" s="291"/>
-      <c r="T82" s="291"/>
-      <c r="U82" s="291"/>
-      <c r="V82" s="291"/>
-      <c r="W82" s="321" t="s">
+      <c r="O82" s="369"/>
+      <c r="P82" s="369"/>
+      <c r="Q82" s="369"/>
+      <c r="R82" s="369"/>
+      <c r="S82" s="369"/>
+      <c r="T82" s="369"/>
+      <c r="U82" s="369"/>
+      <c r="V82" s="369"/>
+      <c r="W82" s="280" t="s">
         <v>33</v>
       </c>
-      <c r="X82" s="322"/>
-      <c r="Y82" s="322"/>
-      <c r="Z82" s="322"/>
-      <c r="AA82" s="322"/>
-      <c r="AB82" s="322"/>
-      <c r="AC82" s="323"/>
-      <c r="AD82" s="321" t="s">
+      <c r="X82" s="281"/>
+      <c r="Y82" s="281"/>
+      <c r="Z82" s="281"/>
+      <c r="AA82" s="281"/>
+      <c r="AB82" s="281"/>
+      <c r="AC82" s="282"/>
+      <c r="AD82" s="280" t="s">
         <v>34</v>
       </c>
-      <c r="AE82" s="322"/>
-      <c r="AF82" s="322"/>
-      <c r="AG82" s="322"/>
-      <c r="AH82" s="323"/>
+      <c r="AE82" s="281"/>
+      <c r="AF82" s="281"/>
+      <c r="AG82" s="281"/>
+      <c r="AH82" s="282"/>
     </row>
     <row r="83" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C83" s="30"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="331"/>
-      <c r="F83" s="324"/>
-      <c r="G83" s="325"/>
-      <c r="H83" s="325"/>
-      <c r="I83" s="326"/>
-      <c r="J83" s="324"/>
-      <c r="K83" s="325"/>
-      <c r="L83" s="325"/>
-      <c r="M83" s="326"/>
-      <c r="N83" s="291" t="s">
+      <c r="E83" s="290"/>
+      <c r="F83" s="283"/>
+      <c r="G83" s="284"/>
+      <c r="H83" s="284"/>
+      <c r="I83" s="285"/>
+      <c r="J83" s="283"/>
+      <c r="K83" s="284"/>
+      <c r="L83" s="284"/>
+      <c r="M83" s="285"/>
+      <c r="N83" s="369" t="s">
         <v>28</v>
       </c>
-      <c r="O83" s="291"/>
-      <c r="P83" s="291"/>
-      <c r="Q83" s="291"/>
-      <c r="R83" s="291"/>
-      <c r="S83" s="292" t="s">
+      <c r="O83" s="369"/>
+      <c r="P83" s="369"/>
+      <c r="Q83" s="369"/>
+      <c r="R83" s="369"/>
+      <c r="S83" s="370" t="s">
         <v>29</v>
       </c>
-      <c r="T83" s="292"/>
-      <c r="U83" s="292"/>
-      <c r="V83" s="292"/>
-      <c r="W83" s="324"/>
-      <c r="X83" s="325"/>
-      <c r="Y83" s="325"/>
-      <c r="Z83" s="325"/>
-      <c r="AA83" s="325"/>
-      <c r="AB83" s="325"/>
-      <c r="AC83" s="326"/>
-      <c r="AD83" s="324"/>
-      <c r="AE83" s="325"/>
-      <c r="AF83" s="325"/>
-      <c r="AG83" s="325"/>
-      <c r="AH83" s="326"/>
+      <c r="T83" s="370"/>
+      <c r="U83" s="370"/>
+      <c r="V83" s="370"/>
+      <c r="W83" s="283"/>
+      <c r="X83" s="284"/>
+      <c r="Y83" s="284"/>
+      <c r="Z83" s="284"/>
+      <c r="AA83" s="284"/>
+      <c r="AB83" s="284"/>
+      <c r="AC83" s="285"/>
+      <c r="AD83" s="283"/>
+      <c r="AE83" s="284"/>
+      <c r="AF83" s="284"/>
+      <c r="AG83" s="284"/>
+      <c r="AH83" s="285"/>
     </row>
     <row r="84" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C84" s="30"/>
@@ -14898,43 +14899,43 @@
       <c r="E84" s="41">
         <v>1</v>
       </c>
-      <c r="F84" s="288" t="s">
-        <v>149</v>
-      </c>
-      <c r="G84" s="289"/>
-      <c r="H84" s="289"/>
-      <c r="I84" s="290"/>
-      <c r="J84" s="288" t="s">
+      <c r="F84" s="345" t="s">
+        <v>148</v>
+      </c>
+      <c r="G84" s="346"/>
+      <c r="H84" s="346"/>
+      <c r="I84" s="347"/>
+      <c r="J84" s="345" t="s">
         <v>98</v>
       </c>
-      <c r="K84" s="289"/>
-      <c r="L84" s="289"/>
-      <c r="M84" s="290"/>
-      <c r="N84" s="284" t="s">
+      <c r="K84" s="346"/>
+      <c r="L84" s="346"/>
+      <c r="M84" s="347"/>
+      <c r="N84" s="367" t="s">
         <v>78</v>
       </c>
-      <c r="O84" s="285"/>
-      <c r="P84" s="285"/>
-      <c r="Q84" s="285"/>
-      <c r="R84" s="285"/>
-      <c r="S84" s="286" t="s">
+      <c r="O84" s="368"/>
+      <c r="P84" s="368"/>
+      <c r="Q84" s="368"/>
+      <c r="R84" s="368"/>
+      <c r="S84" s="343" t="s">
         <v>79</v>
       </c>
-      <c r="T84" s="287"/>
-      <c r="U84" s="287"/>
-      <c r="V84" s="287"/>
-      <c r="W84" s="275"/>
-      <c r="X84" s="276"/>
-      <c r="Y84" s="276"/>
-      <c r="Z84" s="276"/>
-      <c r="AA84" s="276"/>
-      <c r="AB84" s="276"/>
-      <c r="AC84" s="277"/>
-      <c r="AD84" s="275"/>
-      <c r="AE84" s="276"/>
-      <c r="AF84" s="276"/>
-      <c r="AG84" s="276"/>
-      <c r="AH84" s="277"/>
+      <c r="T84" s="344"/>
+      <c r="U84" s="344"/>
+      <c r="V84" s="344"/>
+      <c r="W84" s="361"/>
+      <c r="X84" s="362"/>
+      <c r="Y84" s="362"/>
+      <c r="Z84" s="362"/>
+      <c r="AA84" s="362"/>
+      <c r="AB84" s="362"/>
+      <c r="AC84" s="363"/>
+      <c r="AD84" s="361"/>
+      <c r="AE84" s="362"/>
+      <c r="AF84" s="362"/>
+      <c r="AG84" s="362"/>
+      <c r="AH84" s="363"/>
     </row>
     <row r="85" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C85" s="30"/>
@@ -14942,43 +14943,43 @@
       <c r="E85" s="41">
         <v>2</v>
       </c>
-      <c r="F85" s="288" t="s">
-        <v>150</v>
-      </c>
-      <c r="G85" s="289"/>
-      <c r="H85" s="289"/>
-      <c r="I85" s="290"/>
-      <c r="J85" s="288" t="s">
+      <c r="F85" s="345" t="s">
+        <v>149</v>
+      </c>
+      <c r="G85" s="346"/>
+      <c r="H85" s="346"/>
+      <c r="I85" s="347"/>
+      <c r="J85" s="345" t="s">
         <v>100</v>
       </c>
-      <c r="K85" s="289"/>
-      <c r="L85" s="289"/>
-      <c r="M85" s="290"/>
-      <c r="N85" s="284" t="s">
+      <c r="K85" s="346"/>
+      <c r="L85" s="346"/>
+      <c r="M85" s="347"/>
+      <c r="N85" s="367" t="s">
         <v>78</v>
       </c>
-      <c r="O85" s="285"/>
-      <c r="P85" s="285"/>
-      <c r="Q85" s="285"/>
-      <c r="R85" s="285"/>
-      <c r="S85" s="286" t="s">
+      <c r="O85" s="368"/>
+      <c r="P85" s="368"/>
+      <c r="Q85" s="368"/>
+      <c r="R85" s="368"/>
+      <c r="S85" s="343" t="s">
         <v>80</v>
       </c>
-      <c r="T85" s="287"/>
-      <c r="U85" s="287"/>
-      <c r="V85" s="287"/>
-      <c r="W85" s="275"/>
-      <c r="X85" s="276"/>
-      <c r="Y85" s="276"/>
-      <c r="Z85" s="276"/>
-      <c r="AA85" s="276"/>
-      <c r="AB85" s="276"/>
-      <c r="AC85" s="277"/>
-      <c r="AD85" s="275"/>
-      <c r="AE85" s="276"/>
-      <c r="AF85" s="276"/>
-      <c r="AG85" s="276"/>
-      <c r="AH85" s="277"/>
+      <c r="T85" s="344"/>
+      <c r="U85" s="344"/>
+      <c r="V85" s="344"/>
+      <c r="W85" s="361"/>
+      <c r="X85" s="362"/>
+      <c r="Y85" s="362"/>
+      <c r="Z85" s="362"/>
+      <c r="AA85" s="362"/>
+      <c r="AB85" s="362"/>
+      <c r="AC85" s="363"/>
+      <c r="AD85" s="361"/>
+      <c r="AE85" s="362"/>
+      <c r="AF85" s="362"/>
+      <c r="AG85" s="362"/>
+      <c r="AH85" s="363"/>
     </row>
     <row r="86" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C86" s="30"/>
@@ -14986,46 +14987,122 @@
       <c r="E86" s="41">
         <v>3</v>
       </c>
-      <c r="F86" s="288" t="s">
-        <v>151</v>
-      </c>
-      <c r="G86" s="289"/>
-      <c r="H86" s="289"/>
-      <c r="I86" s="290"/>
-      <c r="J86" s="288" t="s">
+      <c r="F86" s="345" t="s">
+        <v>150</v>
+      </c>
+      <c r="G86" s="346"/>
+      <c r="H86" s="346"/>
+      <c r="I86" s="347"/>
+      <c r="J86" s="345" t="s">
         <v>102</v>
       </c>
-      <c r="K86" s="289"/>
-      <c r="L86" s="289"/>
-      <c r="M86" s="290"/>
-      <c r="N86" s="284" t="s">
+      <c r="K86" s="346"/>
+      <c r="L86" s="346"/>
+      <c r="M86" s="347"/>
+      <c r="N86" s="367" t="s">
         <v>78</v>
       </c>
-      <c r="O86" s="285"/>
-      <c r="P86" s="285"/>
-      <c r="Q86" s="285"/>
-      <c r="R86" s="285"/>
-      <c r="S86" s="286" t="s">
+      <c r="O86" s="368"/>
+      <c r="P86" s="368"/>
+      <c r="Q86" s="368"/>
+      <c r="R86" s="368"/>
+      <c r="S86" s="343" t="s">
         <v>81</v>
       </c>
-      <c r="T86" s="287"/>
-      <c r="U86" s="287"/>
-      <c r="V86" s="287"/>
-      <c r="W86" s="275"/>
-      <c r="X86" s="276"/>
-      <c r="Y86" s="276"/>
-      <c r="Z86" s="276"/>
-      <c r="AA86" s="276"/>
-      <c r="AB86" s="276"/>
-      <c r="AC86" s="277"/>
-      <c r="AD86" s="275"/>
-      <c r="AE86" s="276"/>
-      <c r="AF86" s="276"/>
-      <c r="AG86" s="276"/>
-      <c r="AH86" s="277"/>
+      <c r="T86" s="344"/>
+      <c r="U86" s="344"/>
+      <c r="V86" s="344"/>
+      <c r="W86" s="361"/>
+      <c r="X86" s="362"/>
+      <c r="Y86" s="362"/>
+      <c r="Z86" s="362"/>
+      <c r="AA86" s="362"/>
+      <c r="AB86" s="362"/>
+      <c r="AC86" s="363"/>
+      <c r="AD86" s="361"/>
+      <c r="AE86" s="362"/>
+      <c r="AF86" s="362"/>
+      <c r="AG86" s="362"/>
+      <c r="AH86" s="363"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="N82:V82"/>
+    <mergeCell ref="N83:R83"/>
+    <mergeCell ref="S83:V83"/>
+    <mergeCell ref="N85:R85"/>
+    <mergeCell ref="S85:V85"/>
+    <mergeCell ref="N84:R84"/>
+    <mergeCell ref="N86:R86"/>
+    <mergeCell ref="S86:V86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="AD84:AH84"/>
+    <mergeCell ref="AD85:AH85"/>
+    <mergeCell ref="AD86:AH86"/>
+    <mergeCell ref="W84:AC84"/>
+    <mergeCell ref="W85:AC85"/>
+    <mergeCell ref="W86:AC86"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="S84:V84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="O50:X50"/>
+    <mergeCell ref="O51:X51"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E59:X59"/>
+    <mergeCell ref="E50:N52"/>
+    <mergeCell ref="O52:X52"/>
+    <mergeCell ref="E49:N49"/>
+    <mergeCell ref="O49:X49"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="E11:J11"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
@@ -15042,82 +15119,6 @@
     <mergeCell ref="AD82:AH83"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="E53:X53"/>
-    <mergeCell ref="E50:N52"/>
-    <mergeCell ref="O52:X52"/>
-    <mergeCell ref="E49:N49"/>
-    <mergeCell ref="O49:X49"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="O50:X50"/>
-    <mergeCell ref="O51:X51"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="S84:V84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="E59:X59"/>
-    <mergeCell ref="AD84:AH84"/>
-    <mergeCell ref="AD85:AH85"/>
-    <mergeCell ref="AD86:AH86"/>
-    <mergeCell ref="W84:AC84"/>
-    <mergeCell ref="W85:AC85"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="H19:AH19"/>
-    <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="N86:R86"/>
-    <mergeCell ref="S86:V86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="W86:AC86"/>
-    <mergeCell ref="N82:V82"/>
-    <mergeCell ref="N83:R83"/>
-    <mergeCell ref="S83:V83"/>
-    <mergeCell ref="N85:R85"/>
-    <mergeCell ref="S85:V85"/>
-    <mergeCell ref="N84:R84"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
